--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2212" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481A16B1-16EC-4727-A504-EE9CC9BA2821}"/>
+  <xr:revisionPtr revIDLastSave="2318" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B29BD28D-74C6-4A23-BAE7-729F3034683C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
     <sheet name="opus_big Simple aWCE" sheetId="11" r:id="rId2"/>
-    <sheet name="opus_big Fine aWCE" sheetId="14" r:id="rId3"/>
-    <sheet name="opus_big AoN aWCE" sheetId="15" r:id="rId4"/>
+    <sheet name="opus_big AoN aWCE" sheetId="15" r:id="rId3"/>
+    <sheet name="opus_big Fine aWCE" sheetId="14" r:id="rId4"/>
     <sheet name="opus_big LSP Simple aWCE" sheetId="16" r:id="rId5"/>
-    <sheet name="opus_big LSP Fine aWCE " sheetId="17" r:id="rId6"/>
-    <sheet name="opus_big LSP AoN aWCE " sheetId="18" r:id="rId7"/>
+    <sheet name="opus_big LSP AoN aWCE " sheetId="18" r:id="rId6"/>
+    <sheet name="opus_big LSP Fine aWCE " sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -595,10 +595,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,6 +616,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF998B4A-29E4-442C-9C41-DA68011D7885}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,19 +1930,13 @@
       <c r="C2" s="26">
         <v>1.25</v>
       </c>
-      <c r="D2" s="4">
-        <v>42.792000000000002</v>
-      </c>
-      <c r="E2" s="12">
-        <v>13016.598</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5">
         <f>E2/3600</f>
-        <v>3.6157216666666665</v>
-      </c>
-      <c r="G2" s="5">
-        <v>180.9358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
@@ -1946,20 +1944,14 @@
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
-      <c r="D3" s="6">
-        <v>42.681600000000003</v>
-      </c>
-      <c r="E3" s="13">
-        <v>13366.805700000001</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F33" si="0">E3/3600</f>
-        <v>3.7130015833333334</v>
-      </c>
-      <c r="G3" s="7">
-        <v>180.9358</v>
-      </c>
-      <c r="I3" s="56"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
@@ -1967,19 +1959,13 @@
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
-      <c r="D4" s="6">
-        <v>43.368000000000002</v>
-      </c>
-      <c r="E4" s="13">
-        <v>28817.978999999999</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>8.0049941666666662</v>
-      </c>
-      <c r="G4" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
@@ -1987,19 +1973,13 @@
       <c r="C5" s="25">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <v>42.967599999999997</v>
-      </c>
-      <c r="E5" s="13">
-        <v>18439.934099999999</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>5.122203916666666</v>
-      </c>
-      <c r="G5" s="7">
-        <v>129.2098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
@@ -2009,19 +1989,13 @@
       <c r="C6" s="26">
         <v>1.25</v>
       </c>
-      <c r="D6" s="6">
-        <v>42.853499999999997</v>
-      </c>
-      <c r="E6" s="13">
-        <v>12877.406199999999</v>
-      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>3.5770572777777776</v>
-      </c>
-      <c r="G6" s="7">
-        <v>155.0676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
@@ -2029,19 +2003,13 @@
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
-      <c r="D7" s="6">
-        <v>42.663699999999999</v>
-      </c>
-      <c r="E7" s="13">
-        <v>12923.388199999999</v>
-      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>3.5898300555555553</v>
-      </c>
-      <c r="G7" s="7">
-        <v>129.2098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
@@ -2049,19 +2017,13 @@
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
-      <c r="D8" s="6">
-        <v>43.389400000000002</v>
-      </c>
-      <c r="E8" s="13">
-        <v>28777.539199999999</v>
-      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>7.9937608888888887</v>
-      </c>
-      <c r="G8" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
@@ -2069,19 +2031,13 @@
       <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
-        <v>42.89</v>
-      </c>
-      <c r="E9" s="13">
-        <v>17226.615600000001</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>4.7851710000000001</v>
-      </c>
-      <c r="G9" s="7">
-        <v>103.4242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
@@ -2091,19 +2047,13 @@
       <c r="C10" s="26">
         <v>1.25</v>
       </c>
-      <c r="D10" s="6">
-        <v>43.305199999999999</v>
-      </c>
-      <c r="E10" s="13">
-        <v>27389.443299999999</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>7.6081786944444438</v>
-      </c>
-      <c r="G10" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
@@ -2111,19 +2061,13 @@
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6">
-        <v>43.113300000000002</v>
-      </c>
-      <c r="E11" s="13">
-        <v>24768.322</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>6.8800894444444447</v>
-      </c>
-      <c r="G11" s="7">
-        <v>206.76740000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
@@ -2131,19 +2075,13 @@
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
-      <c r="D12" s="6">
-        <v>43.082700000000003</v>
-      </c>
-      <c r="E12" s="13">
-        <v>28779.733899999999</v>
-      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>7.9943705277777779</v>
-      </c>
-      <c r="G12" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="53"/>
@@ -2151,19 +2089,13 @@
       <c r="C13" s="25">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
-        <v>42.652000000000001</v>
-      </c>
-      <c r="E13" s="13">
-        <v>15445.25</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>4.2903472222222225</v>
-      </c>
-      <c r="G13" s="7">
-        <v>206.76740000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
@@ -2173,19 +2105,13 @@
       <c r="C14" s="26">
         <v>1.25</v>
       </c>
-      <c r="D14" s="6">
-        <v>43.011600000000001</v>
-      </c>
-      <c r="E14" s="14">
-        <v>21631.044300000001</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>6.0086234166666674</v>
-      </c>
-      <c r="G14" s="7">
-        <v>155.0676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
@@ -2193,19 +2119,13 @@
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
-      <c r="D15" s="6">
-        <v>43.012099999999997</v>
-      </c>
-      <c r="E15" s="13">
-        <v>17481.9103</v>
-      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>4.856086194444444</v>
-      </c>
-      <c r="G15" s="7">
-        <v>155.0676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
@@ -2213,19 +2133,13 @@
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
-      <c r="D16" s="6">
-        <v>43.057499999999997</v>
-      </c>
-      <c r="E16" s="13">
-        <v>21186.617900000001</v>
-      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>5.8851716388888891</v>
-      </c>
-      <c r="G16" s="7">
-        <v>155.0676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
@@ -2233,19 +2147,13 @@
       <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="6">
-        <v>43.127600000000001</v>
-      </c>
-      <c r="E17" s="14">
-        <v>28750.1793</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>7.9861609166666669</v>
-      </c>
-      <c r="G17" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
@@ -2257,19 +2165,13 @@
       <c r="C18" s="26">
         <v>1.25</v>
       </c>
-      <c r="D18" s="6">
-        <v>42.918100000000003</v>
-      </c>
-      <c r="E18" s="14">
-        <v>17317.2683</v>
-      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>4.810352305555555</v>
-      </c>
-      <c r="G18" s="7">
-        <v>103.4242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
@@ -2277,19 +2179,13 @@
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
-      <c r="D19" s="57">
-        <v>43.590400000000002</v>
-      </c>
-      <c r="E19" s="12">
-        <v>28873.5753</v>
-      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>8.020437583333333</v>
-      </c>
-      <c r="G19" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
@@ -2297,19 +2193,13 @@
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
-      <c r="D20" s="6">
-        <v>42.973599999999998</v>
-      </c>
-      <c r="E20" s="14">
-        <v>28999.587299999999</v>
-      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>8.055440916666667</v>
-      </c>
-      <c r="G20" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
@@ -2317,19 +2207,13 @@
       <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
-        <v>42.939599999999999</v>
-      </c>
-      <c r="E21" s="14">
-        <v>17389.731299999999</v>
-      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>4.8304809166666667</v>
-      </c>
-      <c r="G21" s="7">
-        <v>180.9358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
@@ -2339,19 +2223,13 @@
       <c r="C22" s="26">
         <v>1.25</v>
       </c>
-      <c r="D22" s="6">
-        <v>42.913499999999999</v>
-      </c>
-      <c r="E22" s="14">
-        <v>16778.929</v>
-      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>4.6608136111111111</v>
-      </c>
-      <c r="G22" s="7">
-        <v>155.0676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
@@ -2359,19 +2237,13 @@
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
-      <c r="D23" s="6">
-        <v>42.783499999999997</v>
-      </c>
-      <c r="E23" s="14">
-        <v>13495.660599999999</v>
-      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>3.7487946111111108</v>
-      </c>
-      <c r="G23" s="7">
-        <v>103.4242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
@@ -2379,19 +2251,13 @@
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
-      <c r="D24" s="6">
-        <v>43.264299999999999</v>
-      </c>
-      <c r="E24" s="14">
-        <v>27699.1633</v>
-      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>7.6942120277777777</v>
-      </c>
-      <c r="G24" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
@@ -2399,19 +2265,13 @@
       <c r="C25" s="25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
-        <v>43.4343</v>
-      </c>
-      <c r="E25" s="14">
-        <v>28670.5272</v>
-      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>7.9640353333333334</v>
-      </c>
-      <c r="G25" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
@@ -2421,19 +2281,13 @@
       <c r="C26" s="26">
         <v>1.25</v>
       </c>
-      <c r="D26" s="6">
-        <v>42.992199999999997</v>
-      </c>
-      <c r="E26" s="14">
-        <v>16521.1198</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>4.5891999444444442</v>
-      </c>
-      <c r="G26" s="7">
-        <v>103.4242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
@@ -2441,19 +2295,13 @@
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
-      <c r="D27" s="6">
-        <v>43.232900000000001</v>
-      </c>
-      <c r="E27" s="14">
-        <v>29014.921999999999</v>
-      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>8.0597005555555548</v>
-      </c>
-      <c r="G27" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
@@ -2461,19 +2309,13 @@
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
-      <c r="D28" s="6">
-        <v>42.742199999999997</v>
-      </c>
-      <c r="E28" s="14">
-        <v>17316.984100000001</v>
-      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>4.8102733611111113</v>
-      </c>
-      <c r="G28" s="7">
-        <v>103.4242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
@@ -2481,19 +2323,13 @@
       <c r="C29" s="25">
         <v>2</v>
       </c>
-      <c r="D29" s="6">
-        <v>43.391599999999997</v>
-      </c>
-      <c r="E29" s="14">
-        <v>29071.3351</v>
-      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>8.0753708611111108</v>
-      </c>
-      <c r="G29" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
@@ -2503,19 +2339,13 @@
       <c r="C30" s="26">
         <v>1.25</v>
       </c>
-      <c r="D30" s="6">
-        <v>42.9251</v>
-      </c>
-      <c r="E30" s="14">
-        <v>15395.0939</v>
-      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>4.2764149722222218</v>
-      </c>
-      <c r="G30" s="7">
-        <v>77.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
@@ -2523,19 +2353,13 @@
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
-      <c r="D31" s="6">
-        <v>42.823999999999998</v>
-      </c>
-      <c r="E31" s="14">
-        <v>16513.780699999999</v>
-      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>4.5871613055555551</v>
-      </c>
-      <c r="G31" s="7">
-        <v>232.65119999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
@@ -2543,19 +2367,13 @@
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
-      <c r="D32" s="6">
-        <v>43.384099999999997</v>
-      </c>
-      <c r="E32" s="14">
-        <v>25644.8148</v>
-      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>7.123559666666667</v>
-      </c>
-      <c r="G32" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
@@ -2563,19 +2381,13 @@
       <c r="C33" s="25">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
-        <v>43.284199999999998</v>
-      </c>
-      <c r="E33" s="14">
-        <v>29051.612000000001</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>8.0698922222222222</v>
-      </c>
-      <c r="G33" s="7">
-        <v>258.44920000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2596,6 +2408,565 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38C2AB-6679-452D-B8F6-77047F475134}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="27" customWidth="1"/>
+    <col min="5" max="7" width="26.77734375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="5">
+        <f>E2/3600</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F33" si="0">E3/3600</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="25">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="56"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="25">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="25">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="56"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC75104-98F5-44A7-8EFA-4A397559D5FA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -3009,439 +3380,6 @@
       <c r="F33" s="17"/>
       <c r="G33" s="7"/>
     </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38C2AB-6679-452D-B8F6-77047F475134}">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="27" customWidth="1"/>
-    <col min="5" max="7" width="26.77734375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="25">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="25">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="C10" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="25">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="25">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="25">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="C22" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="C26" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="25">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="C30" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="25">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A2:A17"/>
@@ -3815,6 +3753,377 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740E47-112E-4247-BBF2-6F3CD912340D}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" style="27" customWidth="1"/>
+    <col min="2" max="3" width="26.6640625" style="27" customWidth="1"/>
+    <col min="4" max="6" width="26.77734375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="25">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="25">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BB7E3A-06ED-4B19-A037-D7A7B9B01105}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -4192,386 +4501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740E47-112E-4247-BBF2-6F3CD912340D}">
-  <dimension ref="A1:F42"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="27" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" style="27" customWidth="1"/>
-    <col min="4" max="6" width="26.77734375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="B2" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="25">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="B6" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="25">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="B10" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="25">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
-        <v>0.8</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="25">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4580,7 +4510,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FED9EBA27497914FBC51691506A72748" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8db1a03e1afeb6e2a80b24d758973afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xmlns:ns4="1a03cb65-d35a-4d70-82d7-cdf046b799c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd4cfb9390361c575275bc1f8c982e1d" ns3:_="" ns4:_="">
     <xsd:import namespace="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
@@ -4809,24 +4739,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4834,7 +4755,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A1E62E-0774-44F1-9C84-E26E87EB904E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4851,4 +4772,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2318" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B29BD28D-74C6-4A23-BAE7-729F3034683C}"/>
+  <xr:revisionPtr revIDLastSave="2414" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086E4C1F-8E86-437D-B07B-3211443EE7C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Weighted Proportion</t>
+  </si>
+  <si>
+    <t>RERUN</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +520,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,12 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,44 +583,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="33">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -958,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -980,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -1002,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1024,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1048,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1070,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1092,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1114,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1138,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1160,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1182,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1204,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1228,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1250,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1272,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1294,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1318,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1340,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1362,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1384,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="40">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34">
         <v>0.75</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1408,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1429,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1451,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1473,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="40">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34">
         <v>0.5</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1497,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1519,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1541,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1563,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="40">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34">
         <v>0.25</v>
       </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1587,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1609,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1631,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1653,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="47">
         <v>0.1</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1681,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1703,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1725,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1750,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1774,10 +1771,10 @@
       <c r="A39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="21" t="s">
         <v>12</v>
       </c>
@@ -1802,11 +1799,11 @@
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="23">
         <v>43.224200000000003</v>
       </c>
@@ -1823,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1855,6 +1852,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1865,13 +1869,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1882,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF998B4A-29E4-442C-9C41-DA68011D7885}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,333 +1918,465 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>4</v>
       </c>
       <c r="C2" s="26">
         <v>1.25</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="4">
+        <v>43.159799999999997</v>
+      </c>
+      <c r="E2" s="12">
+        <v>29016.542700000002</v>
+      </c>
       <c r="F2" s="5">
         <f>E2/3600</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>8.06015075</v>
+      </c>
+      <c r="G2" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="6">
+        <v>43.383899999999997</v>
+      </c>
+      <c r="E3" s="13">
+        <v>29011.771700000001</v>
+      </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F33" si="0">E3/3600</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>8.0588254722222228</v>
+      </c>
+      <c r="G3" s="7">
+        <v>258.44920000000002</v>
+      </c>
       <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="6">
+        <v>43.003300000000003</v>
+      </c>
+      <c r="E4" s="13">
+        <v>16505.728800000001</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>4.5849246666666668</v>
+      </c>
+      <c r="G4" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="6">
+        <v>42.912300000000002</v>
+      </c>
+      <c r="E5" s="13">
+        <v>21470.682000000001</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>5.9640783333333331</v>
+      </c>
+      <c r="G5" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>5</v>
       </c>
       <c r="C6" s="26">
         <v>1.25</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="6">
+        <v>42.892600000000002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>16748.4535</v>
+      </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>4.6523481944444445</v>
+      </c>
+      <c r="G6" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="6">
+        <v>42.933700000000002</v>
+      </c>
+      <c r="E7" s="13">
+        <v>17256.9139</v>
+      </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>4.7935871944444441</v>
+      </c>
+      <c r="G7" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="6">
+        <v>43.305900000000001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>27637.078300000001</v>
+      </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>7.6769661944444447</v>
+      </c>
+      <c r="G8" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="6">
+        <v>42.904000000000003</v>
+      </c>
+      <c r="E9" s="13">
+        <v>21341.0075</v>
+      </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>5.9280576388888884</v>
+      </c>
+      <c r="G9" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>6</v>
       </c>
       <c r="C10" s="26">
         <v>1.25</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="6">
+        <v>42.998699999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>16562.896799999999</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>4.600804666666666</v>
+      </c>
+      <c r="G10" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="6">
+        <v>42.981699999999996</v>
+      </c>
+      <c r="E11" s="13">
+        <v>16649.787499999999</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>4.6249409722222214</v>
+      </c>
+      <c r="G11" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="6">
+        <v>42.935099999999998</v>
+      </c>
+      <c r="E12" s="13">
+        <v>16950.433099999998</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>4.708453638888888</v>
+      </c>
+      <c r="G12" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="25">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="6">
+        <v>42.993499999999997</v>
+      </c>
+      <c r="E13" s="13">
+        <v>25700.366300000002</v>
+      </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>7.1389906388888891</v>
+      </c>
+      <c r="G13" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>7</v>
       </c>
       <c r="C14" s="26">
         <v>1.25</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="6">
+        <v>43.179499999999997</v>
+      </c>
+      <c r="E14" s="14">
+        <v>27668.145400000001</v>
+      </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>7.6855959444444446</v>
+      </c>
+      <c r="G14" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="6">
+        <v>43.644100000000002</v>
+      </c>
+      <c r="E15" s="13">
+        <v>27306.571</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>7.5851586111111109</v>
+      </c>
+      <c r="G15" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="6">
+        <v>42.882100000000001</v>
+      </c>
+      <c r="E16" s="13">
+        <v>16452.034</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+        <v>4.5700094444444446</v>
+      </c>
+      <c r="G16" s="7">
+        <v>232.65119999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="6">
+        <v>43.441699999999997</v>
+      </c>
+      <c r="E17" s="14">
+        <v>19255.5524</v>
+      </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+        <v>5.3487645555555554</v>
+      </c>
+      <c r="G17" s="7">
+        <v>129.2098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>4</v>
       </c>
       <c r="C18" s="26">
         <v>1.25</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="6">
+        <v>43.2774</v>
+      </c>
+      <c r="E18" s="14">
+        <v>31316.296999999999</v>
+      </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+        <v>8.6989713888888893</v>
+      </c>
+      <c r="G18" s="7">
+        <v>310.13979999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="6">
+        <v>43.0167</v>
+      </c>
+      <c r="E19" s="12">
+        <v>18583.752499999999</v>
+      </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+        <v>5.1621534722222222</v>
+      </c>
+      <c r="G19" s="7">
+        <v>258.44920000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="6">
+        <v>43.419800000000002</v>
+      </c>
+      <c r="E20" s="14">
+        <v>33099.654699999999</v>
+      </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+        <v>9.1943485277777768</v>
+      </c>
+      <c r="G20" s="7">
+        <v>310.13979999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="6">
+        <v>43.119500000000002</v>
+      </c>
+      <c r="E21" s="14">
+        <v>27529.222900000001</v>
+      </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+        <v>7.647006361111111</v>
+      </c>
+      <c r="G21" s="7">
+        <v>258.44920000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>5</v>
       </c>
       <c r="C22" s="26">
         <v>1.25</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="6">
+        <v>42.997799999999998</v>
+      </c>
+      <c r="E22" s="14">
+        <v>16602.3436</v>
+      </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+        <v>4.6117621111111111</v>
+      </c>
+      <c r="G22" s="7">
+        <v>103.4242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="6">
+        <v>42.849600000000002</v>
+      </c>
+      <c r="E23" s="14">
+        <v>17032.7451</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+        <v>4.731318083333333</v>
+      </c>
+      <c r="G23" s="7">
+        <v>103.4242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
@@ -2258,126 +2387,177 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="H24" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="25">
         <v>2</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="6">
+        <v>43.133699999999997</v>
+      </c>
+      <c r="E25" s="14">
+        <v>29087.944100000001</v>
+      </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+        <v>8.0799844722222218</v>
+      </c>
+      <c r="G25" s="7">
+        <v>258.44920000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>6</v>
       </c>
       <c r="C26" s="26">
         <v>1.25</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
+      <c r="D26" s="6">
+        <v>42.942599999999999</v>
+      </c>
+      <c r="E26" s="14">
+        <v>16759.3397</v>
+      </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+        <v>4.6553721388888887</v>
+      </c>
+      <c r="G26" s="7">
+        <v>103.4242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="6">
+        <v>43.315899999999999</v>
+      </c>
+      <c r="E27" s="14">
+        <v>20323.4028</v>
+      </c>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+        <v>5.6453896666666665</v>
+      </c>
+      <c r="G27" s="7">
+        <v>258.44920000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="6">
+        <v>43.142600000000002</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27060.105599999999</v>
+      </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+        <v>7.5166959999999996</v>
+      </c>
+      <c r="G28" s="7">
+        <v>310.13979999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="25">
         <v>2</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="6">
+        <v>42.887999999999998</v>
+      </c>
+      <c r="E29" s="14">
+        <v>16448.672699999999</v>
+      </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+        <v>4.5690757499999997</v>
+      </c>
+      <c r="G29" s="7">
+        <v>155.0676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>7</v>
       </c>
       <c r="C30" s="26">
         <v>1.25</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="6">
+        <v>43.148299999999999</v>
+      </c>
+      <c r="E30" s="14">
+        <v>20052.149799999999</v>
+      </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+        <v>5.5700416111111108</v>
+      </c>
+      <c r="G30" s="7">
+        <v>258.44920000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="6">
+        <v>42.9636</v>
+      </c>
+      <c r="E31" s="14">
+        <v>16479.568500000001</v>
+      </c>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+        <v>4.5776579166666673</v>
+      </c>
+      <c r="G31" s="7">
+        <v>103.4242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="6">
+        <v>42.554699999999997</v>
+      </c>
+      <c r="E32" s="14">
+        <v>12920.147499999999</v>
+      </c>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+        <v>3.5889298611111107</v>
+      </c>
+      <c r="G32" s="7">
+        <v>103.4242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
@@ -2388,19 +2568,22 @@
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
+      <c r="H33" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2409,7 +2592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38C2AB-6679-452D-B8F6-77047F475134}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H31"/>
@@ -2426,7 +2609,7 @@
     <col min="10" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2449,11 +2632,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0.2</v>
       </c>
       <c r="C2" s="26">
@@ -2466,11 +2649,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="56"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
@@ -2481,11 +2663,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
@@ -2496,11 +2677,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -2511,11 +2691,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>0.4</v>
       </c>
       <c r="C6" s="26">
@@ -2528,11 +2707,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
@@ -2543,11 +2721,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
@@ -2558,11 +2735,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="56"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="25">
         <v>2</v>
       </c>
@@ -2573,11 +2749,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="56"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>0.6</v>
       </c>
       <c r="C10" s="26">
@@ -2590,11 +2765,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
@@ -2605,11 +2779,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
@@ -2620,11 +2793,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="25">
         <v>2</v>
       </c>
@@ -2635,11 +2807,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55">
         <v>0.8</v>
       </c>
       <c r="C14" s="26">
@@ -2652,11 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
@@ -2667,11 +2837,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
@@ -2682,11 +2851,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="25">
         <v>2</v>
       </c>
@@ -2697,13 +2865,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>0.2</v>
       </c>
       <c r="C18" s="26">
@@ -2716,11 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
@@ -2731,11 +2897,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
@@ -2746,11 +2911,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="25">
         <v>2</v>
       </c>
@@ -2761,11 +2925,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="55">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="54">
         <v>0.4</v>
       </c>
       <c r="C22" s="26">
@@ -2778,11 +2941,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
@@ -2793,11 +2955,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
@@ -2808,11 +2969,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="56"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="25">
         <v>2</v>
       </c>
@@ -2823,11 +2983,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="56"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="54">
         <v>0.6</v>
       </c>
       <c r="C26" s="26">
@@ -2840,11 +2999,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
@@ -2855,11 +3013,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
@@ -2870,11 +3027,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="56"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="25">
         <v>2</v>
       </c>
@@ -2885,11 +3041,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="56"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="54">
         <v>0.8</v>
       </c>
       <c r="C30" s="26">
@@ -2902,11 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="56"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
@@ -2917,11 +3071,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="56"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
@@ -2934,8 +3087,8 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
@@ -2950,16 +3103,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3009,10 +3162,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
       <c r="C2" s="26">
@@ -3024,8 +3177,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
@@ -3035,8 +3188,8 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
@@ -3046,8 +3199,8 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -3057,8 +3210,8 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="26">
@@ -3070,8 +3223,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
@@ -3081,8 +3234,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
@@ -3092,8 +3245,8 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="25">
         <v>2</v>
       </c>
@@ -3103,8 +3256,8 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>2</v>
       </c>
       <c r="C10" s="26">
@@ -3116,8 +3269,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
@@ -3127,8 +3280,8 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
@@ -3138,8 +3291,8 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="25">
         <v>2</v>
       </c>
@@ -3149,8 +3302,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>3</v>
       </c>
       <c r="C14" s="26">
@@ -3162,8 +3315,8 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
@@ -3173,8 +3326,8 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
@@ -3184,8 +3337,8 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="25">
         <v>2</v>
       </c>
@@ -3195,10 +3348,10 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>0</v>
       </c>
       <c r="C18" s="26">
@@ -3210,8 +3363,8 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
@@ -3221,8 +3374,8 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
@@ -3232,8 +3385,8 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="25">
         <v>2</v>
       </c>
@@ -3243,8 +3396,8 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>1</v>
       </c>
       <c r="C22" s="26">
@@ -3256,8 +3409,8 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
@@ -3267,8 +3420,8 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
@@ -3278,8 +3431,8 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="25">
         <v>2</v>
       </c>
@@ -3289,8 +3442,8 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>2</v>
       </c>
       <c r="C26" s="26">
@@ -3302,8 +3455,8 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
@@ -3313,8 +3466,8 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
@@ -3324,8 +3477,8 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="25">
         <v>2</v>
       </c>
@@ -3335,8 +3488,8 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>3</v>
       </c>
       <c r="C30" s="26">
@@ -3348,8 +3501,8 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
@@ -3359,8 +3512,8 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
@@ -3370,8 +3523,8 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
@@ -3382,16 +3535,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3437,7 +3590,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>4</v>
       </c>
       <c r="B2" s="26">
@@ -3449,7 +3602,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="25">
         <v>1.5</v>
       </c>
@@ -3459,7 +3612,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="25">
         <v>1.75</v>
       </c>
@@ -3469,7 +3622,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3479,7 +3632,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="26">
@@ -3491,7 +3644,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="25">
         <v>1.5</v>
       </c>
@@ -3501,7 +3654,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="25">
         <v>1.75</v>
       </c>
@@ -3511,7 +3664,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="25">
         <v>2</v>
       </c>
@@ -3521,7 +3674,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>6</v>
       </c>
       <c r="B10" s="26">
@@ -3533,7 +3686,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="25">
         <v>1.5</v>
       </c>
@@ -3543,7 +3696,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="25">
         <v>1.75</v>
       </c>
@@ -3553,7 +3706,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -3563,7 +3716,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
       <c r="B14" s="26">
@@ -3575,7 +3728,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="25">
         <v>1.5</v>
       </c>
@@ -3585,7 +3738,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="25">
         <v>1.75</v>
       </c>
@@ -3595,7 +3748,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -3756,7 +3909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740E47-112E-4247-BBF2-6F3CD912340D}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -3791,7 +3944,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0.2</v>
       </c>
       <c r="B2" s="26">
@@ -3803,7 +3956,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="25">
         <v>1.5</v>
       </c>
@@ -3813,7 +3966,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="25">
         <v>1.75</v>
       </c>
@@ -3823,7 +3976,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3833,7 +3986,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>0.4</v>
       </c>
       <c r="B6" s="26">
@@ -3845,7 +3998,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="25">
         <v>1.5</v>
       </c>
@@ -3855,7 +4008,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="25">
         <v>1.75</v>
       </c>
@@ -3865,7 +4018,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="25">
         <v>2</v>
       </c>
@@ -3875,7 +4028,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>0.6</v>
       </c>
       <c r="B10" s="26">
@@ -3887,7 +4040,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="25">
         <v>1.5</v>
       </c>
@@ -3897,7 +4050,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="25">
         <v>1.75</v>
       </c>
@@ -3907,7 +4060,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -3917,7 +4070,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>0.8</v>
       </c>
       <c r="B14" s="26">
@@ -3929,7 +4082,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="25">
         <v>1.5</v>
       </c>
@@ -3939,7 +4092,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="25">
         <v>1.75</v>
       </c>
@@ -3949,7 +4102,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -4162,7 +4315,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
       <c r="B2" s="26">
@@ -4174,7 +4327,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="25">
         <v>1.5</v>
       </c>
@@ -4184,7 +4337,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="25">
         <v>1.75</v>
       </c>
@@ -4194,7 +4347,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -4204,7 +4357,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
       <c r="B6" s="26">
@@ -4216,7 +4369,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="25">
         <v>1.5</v>
       </c>
@@ -4226,7 +4379,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="25">
         <v>1.75</v>
       </c>
@@ -4236,7 +4389,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="25">
         <v>2</v>
       </c>
@@ -4246,7 +4399,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
       <c r="B10" s="26">
@@ -4258,7 +4411,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="25">
         <v>1.5</v>
       </c>
@@ -4268,7 +4421,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="25">
         <v>1.75</v>
       </c>
@@ -4278,7 +4431,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -4288,7 +4441,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>3</v>
       </c>
       <c r="B14" s="26">
@@ -4300,7 +4453,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="25">
         <v>1.5</v>
       </c>
@@ -4310,7 +4463,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="25">
         <v>1.75</v>
       </c>
@@ -4320,7 +4473,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -4502,12 +4655,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4740,17 +4892,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4775,18 +4937,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2414" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086E4C1F-8E86-437D-B07B-3211443EE7C9}"/>
+  <xr:revisionPtr revIDLastSave="2425" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102E5D7D-7EB2-44CC-8909-3F9B5E0C3917}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="20580" windowHeight="12240" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>Weight</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Weighted Proportion</t>
-  </si>
-  <si>
-    <t>RERUN</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2228,7 +2228,7 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="25">
@@ -2248,7 +2248,7 @@
         <v>129.2098</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="55"/>
       <c r="C19" s="25">
@@ -2292,7 +2292,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="55"/>
       <c r="C20" s="25">
@@ -2312,7 +2312,7 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
       <c r="B21" s="55"/>
       <c r="C21" s="25">
@@ -2332,7 +2332,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
       <c r="B22" s="55">
         <v>5</v>
@@ -2354,7 +2354,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="55"/>
       <c r="C23" s="25">
@@ -2374,24 +2374,27 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="B24" s="55"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="56">
+        <v>43.872199999999999</v>
+      </c>
+      <c r="E24" s="14">
+        <v>27728.7919</v>
+      </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.7024421944444441</v>
+      </c>
+      <c r="G24" s="7">
+        <v>258.44920000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="55"/>
       <c r="C25" s="25">
@@ -2411,7 +2414,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
       <c r="B26" s="55">
         <v>6</v>
@@ -2433,7 +2436,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
       <c r="B27" s="55"/>
       <c r="C27" s="25">
@@ -2453,7 +2456,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="55"/>
       <c r="C28" s="25">
@@ -2473,7 +2476,7 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="55"/>
       <c r="C29" s="25">
@@ -2493,7 +2496,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="55">
         <v>7</v>
@@ -2515,7 +2518,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="55"/>
       <c r="C31" s="25">
@@ -2535,7 +2538,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="55"/>
       <c r="C32" s="25">
@@ -2555,21 +2558,24 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="55"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="14"/>
+      <c r="D33" s="6">
+        <v>43.221200000000003</v>
+      </c>
+      <c r="E33" s="14">
+        <v>28663.645499999999</v>
+      </c>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="27" t="s">
-        <v>22</v>
+        <v>7.9621237499999999</v>
+      </c>
+      <c r="G33" s="7">
+        <v>258.44920000000002</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2425" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102E5D7D-7EB2-44CC-8909-3F9B5E0C3917}"/>
+  <xr:revisionPtr revIDLastSave="2527" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180A8D6F-393D-46BA-AD74-BAB7D828FDA4}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="20580" windowHeight="12240" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -517,6 +517,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,9 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +885,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="34">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34">
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36">
+      <c r="A18" s="32"/>
+      <c r="B18" s="37">
         <v>1</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34">
+      <c r="A22" s="32"/>
+      <c r="B22" s="35">
         <v>0.75</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34">
+      <c r="A26" s="32"/>
+      <c r="B26" s="35">
         <v>0.5</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34">
+      <c r="A30" s="32"/>
+      <c r="B30" s="35">
         <v>0.25</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="48">
         <v>0.1</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="48">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="21" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="23">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF998B4A-29E4-442C-9C41-DA68011D7885}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>4</v>
       </c>
       <c r="C2" s="26">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>5</v>
       </c>
       <c r="C6" s="26">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="25">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>6</v>
       </c>
       <c r="C10" s="26">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="25">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>7</v>
       </c>
       <c r="C14" s="26">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
@@ -2209,8 +2209,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
@@ -2229,8 +2229,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="25">
         <v>2</v>
       </c>
@@ -2249,10 +2249,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="56">
         <v>4</v>
       </c>
       <c r="C18" s="26">
@@ -2273,8 +2273,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
@@ -2313,8 +2313,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="25">
         <v>2</v>
       </c>
@@ -2333,8 +2333,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="38"/>
+      <c r="B22" s="56">
         <v>5</v>
       </c>
       <c r="C22" s="26">
@@ -2355,8 +2355,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
@@ -2375,12 +2375,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="30">
         <v>43.872199999999999</v>
       </c>
       <c r="E24" s="14">
@@ -2395,8 +2395,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="25">
         <v>2</v>
       </c>
@@ -2415,8 +2415,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="38"/>
+      <c r="B26" s="56">
         <v>6</v>
       </c>
       <c r="C26" s="26">
@@ -2437,8 +2437,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
@@ -2457,8 +2457,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
@@ -2477,8 +2477,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="25">
         <v>2</v>
       </c>
@@ -2497,8 +2497,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="38"/>
+      <c r="B30" s="56">
         <v>7</v>
       </c>
       <c r="C30" s="26">
@@ -2519,8 +2519,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
@@ -2539,8 +2539,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
@@ -2559,8 +2559,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38C2AB-6679-452D-B8F6-77047F475134}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2639,472 +2639,664 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0.2</v>
       </c>
       <c r="C2" s="26">
         <v>1.25</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="4">
+        <v>43.003799999999998</v>
+      </c>
+      <c r="E2" s="12">
+        <v>16596.0838</v>
+      </c>
       <c r="F2" s="5">
         <f>E2/3600</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>4.6100232777777777</v>
+      </c>
+      <c r="G2" s="5">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="6">
+        <v>42.779299999999999</v>
+      </c>
+      <c r="E3" s="13">
+        <v>13771.677600000001</v>
+      </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F33" si="0">E3/3600</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>3.825466</v>
+      </c>
+      <c r="G3" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="6">
+        <v>42.772500000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <v>18155.3806</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>5.0431612777777781</v>
+      </c>
+      <c r="G4" s="5">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="6">
+        <v>43.278199999999998</v>
+      </c>
+      <c r="E5" s="13">
+        <v>27478.394199999999</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>7.6328872777777779</v>
+      </c>
+      <c r="G5" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>0.4</v>
       </c>
       <c r="C6" s="26">
         <v>1.25</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="6">
+        <v>42.972299999999997</v>
+      </c>
+      <c r="E6" s="13">
+        <v>16563.2677</v>
+      </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>4.6009076944444445</v>
+      </c>
+      <c r="G6" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="6">
+        <v>43.290300000000002</v>
+      </c>
+      <c r="E7" s="13">
+        <v>27468.6597</v>
+      </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>7.63018325</v>
+      </c>
+      <c r="G7" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="6">
+        <v>42.902999999999999</v>
+      </c>
+      <c r="E8" s="13">
+        <v>29412.071899999999</v>
+      </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>8.1700199722222226</v>
+      </c>
+      <c r="G8" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="6">
+        <v>42.738799999999998</v>
+      </c>
+      <c r="E9" s="13">
+        <v>15435.5877</v>
+      </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>4.2876632499999996</v>
+      </c>
+      <c r="G9" s="5">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>0.6</v>
       </c>
       <c r="C10" s="26">
         <v>1.25</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="6">
+        <v>43.317</v>
+      </c>
+      <c r="E10" s="13">
+        <v>28819.608700000001</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>8.0054468611111105</v>
+      </c>
+      <c r="G10" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="6">
+        <v>42.875300000000003</v>
+      </c>
+      <c r="E11" s="13">
+        <v>16996.5154</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>4.7212542777777777</v>
+      </c>
+      <c r="G11" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="6">
+        <v>43.069099999999999</v>
+      </c>
+      <c r="E12" s="13">
+        <v>14952.2654</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>4.1534070555555553</v>
+      </c>
+      <c r="G12" s="5">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="25">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="6">
+        <v>42.7943</v>
+      </c>
+      <c r="E13" s="13">
+        <v>16479.215899999999</v>
+      </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>4.5775599722222218</v>
+      </c>
+      <c r="G13" s="7">
+        <v>206.76740000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56">
         <v>0.8</v>
       </c>
       <c r="C14" s="26">
         <v>1.25</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="6">
+        <v>43.1783</v>
+      </c>
+      <c r="E14" s="14">
+        <v>28515.0962</v>
+      </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>7.9208600555555559</v>
+      </c>
+      <c r="G14" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="6">
+        <v>43.064799999999998</v>
+      </c>
+      <c r="E15" s="13">
+        <v>24170.6967</v>
+      </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>6.7140824166666668</v>
+      </c>
+      <c r="G15" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="6">
+        <v>43.128999999999998</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23971.5298</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>6.6587582777777783</v>
+      </c>
+      <c r="G16" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="6">
+        <v>42.873800000000003</v>
+      </c>
+      <c r="E17" s="14">
+        <v>28961.016</v>
+      </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>8.0447266666666657</v>
+      </c>
+      <c r="G17" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>0.2</v>
       </c>
       <c r="C18" s="26">
         <v>1.25</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="6">
+        <v>42.765099999999997</v>
+      </c>
+      <c r="E18" s="14">
+        <v>17733.975399999999</v>
+      </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>4.9261042777777773</v>
+      </c>
+      <c r="G18" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="6">
+        <v>42.8718</v>
+      </c>
+      <c r="E19" s="14">
+        <v>16433.466199999999</v>
+      </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>4.5648517222222216</v>
+      </c>
+      <c r="G19" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="6">
+        <v>43.195700000000002</v>
+      </c>
+      <c r="E20" s="14">
+        <v>21302.7808</v>
+      </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>5.9174391111111113</v>
+      </c>
+      <c r="G20" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="6">
+        <v>43.2988</v>
+      </c>
+      <c r="E21" s="14">
+        <v>29145.348999999998</v>
+      </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>8.0959302777777769</v>
+      </c>
+      <c r="G21" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="54">
+      <c r="A22" s="38"/>
+      <c r="B22" s="55">
         <v>0.4</v>
       </c>
       <c r="C22" s="26">
         <v>1.25</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="30">
+        <v>43.685600000000001</v>
+      </c>
+      <c r="E22" s="14">
+        <v>27727.460500000001</v>
+      </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>7.702072361111111</v>
+      </c>
+      <c r="G22" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="6">
+        <v>43.297899999999998</v>
+      </c>
+      <c r="E23" s="14">
+        <v>30704.060300000001</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>8.5289056388888884</v>
+      </c>
+      <c r="G23" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="6">
+        <v>43.357399999999998</v>
+      </c>
+      <c r="E24" s="14">
+        <v>27738.184700000002</v>
+      </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>7.7050513055555561</v>
+      </c>
+      <c r="G24" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="25">
         <v>2</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="6">
+        <v>43.286999999999999</v>
+      </c>
+      <c r="E25" s="14">
+        <v>27719.370699999999</v>
+      </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>7.6998251944444442</v>
+      </c>
+      <c r="G25" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="54">
+      <c r="A26" s="38"/>
+      <c r="B26" s="55">
         <v>0.6</v>
       </c>
       <c r="C26" s="26">
         <v>1.25</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
+      <c r="D26" s="6">
+        <v>43.192700000000002</v>
+      </c>
+      <c r="E26" s="14">
+        <v>28443.694599999999</v>
+      </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>7.9010262777777776</v>
+      </c>
+      <c r="G26" s="7">
+        <v>335.95600000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="6">
+        <v>43.588000000000001</v>
+      </c>
+      <c r="E27" s="14">
+        <v>27667.729800000001</v>
+      </c>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>7.6854805000000006</v>
+      </c>
+      <c r="G27" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="6">
+        <v>43.271900000000002</v>
+      </c>
+      <c r="E28" s="14">
+        <v>25381.072100000001</v>
+      </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7"/>
+        <v>7.0502978055555561</v>
+      </c>
+      <c r="G28" s="7">
+        <v>206.76740000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="25">
         <v>2</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="6">
+        <v>43.002200000000002</v>
+      </c>
+      <c r="E29" s="14">
+        <v>17523.725299999998</v>
+      </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7"/>
+        <v>4.8677014722222216</v>
+      </c>
+      <c r="G29" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="54">
+      <c r="A30" s="38"/>
+      <c r="B30" s="55">
         <v>0.8</v>
       </c>
       <c r="C30" s="26">
         <v>1.25</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="6">
+        <v>43.577300000000001</v>
+      </c>
+      <c r="E30" s="14">
+        <v>29124.582200000001</v>
+      </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>8.0901617222222217</v>
+      </c>
+      <c r="G30" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="6">
+        <v>43.261400000000002</v>
+      </c>
+      <c r="E31" s="14">
+        <v>27438.689399999999</v>
+      </c>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7"/>
+        <v>7.6218581666666667</v>
+      </c>
+      <c r="G31" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="6">
+        <v>43.143099999999997</v>
+      </c>
+      <c r="E32" s="14">
+        <v>20294.185000000001</v>
+      </c>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>5.6372736111111115</v>
+      </c>
+      <c r="G32" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="14"/>
+      <c r="D33" s="6">
+        <v>42.869</v>
+      </c>
+      <c r="E33" s="14">
+        <v>26911.370599999998</v>
+      </c>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>7.4753807222222219</v>
+      </c>
+      <c r="G33" s="7">
+        <v>335.95600000000002</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3168,10 +3360,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0</v>
       </c>
       <c r="C2" s="26">
@@ -3183,8 +3375,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="25">
         <v>1.5</v>
       </c>
@@ -3194,8 +3386,8 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="25">
         <v>1.75</v>
       </c>
@@ -3205,8 +3397,8 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -3216,8 +3408,8 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="26">
@@ -3229,8 +3421,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="25">
         <v>1.5</v>
       </c>
@@ -3240,8 +3432,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="25">
         <v>1.75</v>
       </c>
@@ -3251,8 +3443,8 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="25">
         <v>2</v>
       </c>
@@ -3262,8 +3454,8 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>2</v>
       </c>
       <c r="C10" s="26">
@@ -3275,8 +3467,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="25">
         <v>1.5</v>
       </c>
@@ -3286,8 +3478,8 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="25">
         <v>1.75</v>
       </c>
@@ -3297,8 +3489,8 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="25">
         <v>2</v>
       </c>
@@ -3308,8 +3500,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>3</v>
       </c>
       <c r="C14" s="26">
@@ -3321,8 +3513,8 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="25">
         <v>1.5</v>
       </c>
@@ -3332,8 +3524,8 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="25">
         <v>1.75</v>
       </c>
@@ -3343,8 +3535,8 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="25">
         <v>2</v>
       </c>
@@ -3354,10 +3546,10 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="56">
         <v>0</v>
       </c>
       <c r="C18" s="26">
@@ -3369,8 +3561,8 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="25">
         <v>1.5</v>
       </c>
@@ -3380,8 +3572,8 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="25">
         <v>1.75</v>
       </c>
@@ -3391,8 +3583,8 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="25">
         <v>2</v>
       </c>
@@ -3402,8 +3594,8 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="38"/>
+      <c r="B22" s="56">
         <v>1</v>
       </c>
       <c r="C22" s="26">
@@ -3415,8 +3607,8 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="25">
         <v>1.5</v>
       </c>
@@ -3426,8 +3618,8 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="25">
         <v>1.75</v>
       </c>
@@ -3437,8 +3629,8 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="25">
         <v>2</v>
       </c>
@@ -3448,8 +3640,8 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="38"/>
+      <c r="B26" s="56">
         <v>2</v>
       </c>
       <c r="C26" s="26">
@@ -3461,8 +3653,8 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="25">
         <v>1.5</v>
       </c>
@@ -3472,8 +3664,8 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="25">
         <v>1.75</v>
       </c>
@@ -3483,8 +3675,8 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="25">
         <v>2</v>
       </c>
@@ -3494,8 +3686,8 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="38"/>
+      <c r="B30" s="56">
         <v>3</v>
       </c>
       <c r="C30" s="26">
@@ -3507,8 +3699,8 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="25">
         <v>1.5</v>
       </c>
@@ -3518,8 +3710,8 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="25">
         <v>1.75</v>
       </c>
@@ -3529,8 +3721,8 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="25">
         <v>2</v>
       </c>
@@ -3596,7 +3788,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>4</v>
       </c>
       <c r="B2" s="26">
@@ -3608,7 +3800,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="25">
         <v>1.5</v>
       </c>
@@ -3618,7 +3810,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="25">
         <v>1.75</v>
       </c>
@@ -3628,7 +3820,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3638,7 +3830,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
       <c r="B6" s="26">
@@ -3650,7 +3842,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="25">
         <v>1.5</v>
       </c>
@@ -3660,7 +3852,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="25">
         <v>1.75</v>
       </c>
@@ -3670,7 +3862,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="25">
         <v>2</v>
       </c>
@@ -3680,7 +3872,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>6</v>
       </c>
       <c r="B10" s="26">
@@ -3692,7 +3884,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="25">
         <v>1.5</v>
       </c>
@@ -3702,7 +3894,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="25">
         <v>1.75</v>
       </c>
@@ -3712,7 +3904,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -3722,7 +3914,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
       <c r="B14" s="26">
@@ -3734,7 +3926,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="25">
         <v>1.5</v>
       </c>
@@ -3744,7 +3936,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="25">
         <v>1.75</v>
       </c>
@@ -3754,7 +3946,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -3950,7 +4142,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>0.2</v>
       </c>
       <c r="B2" s="26">
@@ -3962,7 +4154,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="25">
         <v>1.5</v>
       </c>
@@ -3972,7 +4164,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="25">
         <v>1.75</v>
       </c>
@@ -3982,7 +4174,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3992,7 +4184,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>0.4</v>
       </c>
       <c r="B6" s="26">
@@ -4004,7 +4196,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="25">
         <v>1.5</v>
       </c>
@@ -4014,7 +4206,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="25">
         <v>1.75</v>
       </c>
@@ -4024,7 +4216,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="25">
         <v>2</v>
       </c>
@@ -4034,7 +4226,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>0.6</v>
       </c>
       <c r="B10" s="26">
@@ -4046,7 +4238,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="25">
         <v>1.5</v>
       </c>
@@ -4056,7 +4248,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="25">
         <v>1.75</v>
       </c>
@@ -4066,7 +4258,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -4076,7 +4268,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="56">
         <v>0.8</v>
       </c>
       <c r="B14" s="26">
@@ -4088,7 +4280,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="25">
         <v>1.5</v>
       </c>
@@ -4098,7 +4290,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="25">
         <v>1.75</v>
       </c>
@@ -4108,7 +4300,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -4321,7 +4513,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>0</v>
       </c>
       <c r="B2" s="26">
@@ -4333,7 +4525,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="25">
         <v>1.5</v>
       </c>
@@ -4343,7 +4535,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="25">
         <v>1.75</v>
       </c>
@@ -4353,7 +4545,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -4363,7 +4555,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
       <c r="B6" s="26">
@@ -4375,7 +4567,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="25">
         <v>1.5</v>
       </c>
@@ -4385,7 +4577,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="25">
         <v>1.75</v>
       </c>
@@ -4395,7 +4587,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="25">
         <v>2</v>
       </c>
@@ -4405,7 +4597,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
       <c r="B10" s="26">
@@ -4417,7 +4609,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="25">
         <v>1.5</v>
       </c>
@@ -4427,7 +4619,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="25">
         <v>1.75</v>
       </c>
@@ -4437,7 +4629,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -4447,7 +4639,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>3</v>
       </c>
       <c r="B14" s="26">
@@ -4459,7 +4651,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="25">
         <v>1.5</v>
       </c>
@@ -4469,7 +4661,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="25">
         <v>1.75</v>
       </c>
@@ -4479,7 +4671,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25">
         <v>2</v>
       </c>

--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2527" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180A8D6F-393D-46BA-AD74-BAB7D828FDA4}"/>
+  <xr:revisionPtr revIDLastSave="2634" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F6A047-246D-4A60-B272-06D36BFB10F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Weighted Proportion</t>
+  </si>
+  <si>
+    <t>Loaded</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,9 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="37">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,15 +1381,15 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34">
         <v>0.75</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>43.5535</v>
       </c>
       <c r="F22" s="7">
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34">
         <v>0.5</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34">
         <v>0.25</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="47">
         <v>0.1</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,18 +1747,18 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
       <c r="F38" s="9">
         <v>17977.4303</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="21">
         <f t="shared" si="0"/>
         <v>4.9937306388888887</v>
       </c>
@@ -1768,64 +1768,64 @@
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>42.252800000000001</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <f xml:space="preserve"> F41 + 1125.7265</f>
         <v>17802.121200000001</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21">
         <f t="shared" si="0"/>
         <v>4.9450336666666672</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="21">
         <f>H41 + 0.0228</f>
         <v>103.447</v>
       </c>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="23">
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>12175.0232</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <f t="shared" si="0"/>
         <v>3.381950888888889</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="18">
         <v>52.465400000000002</v>
       </c>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1880,18 +1880,18 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="27" customWidth="1"/>
-    <col min="5" max="7" width="26.77734375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="21.77734375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="26" customWidth="1"/>
+    <col min="5" max="7" width="26.77734375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1918,13 +1918,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>4</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>1.25</v>
       </c>
       <c r="D2" s="4">
@@ -1942,9 +1942,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="24">
         <v>1.5</v>
       </c>
       <c r="D3" s="6">
@@ -1960,12 +1960,12 @@
       <c r="G3" s="7">
         <v>258.44920000000002</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="24">
         <v>1.75</v>
       </c>
       <c r="D4" s="6">
@@ -1983,9 +1983,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="24">
         <v>2</v>
       </c>
       <c r="D5" s="6">
@@ -2003,11 +2003,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>1.25</v>
       </c>
       <c r="D6" s="6">
@@ -2025,9 +2025,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="24">
         <v>1.5</v>
       </c>
       <c r="D7" s="6">
@@ -2045,9 +2045,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="24">
         <v>1.75</v>
       </c>
       <c r="D8" s="6">
@@ -2065,9 +2065,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="24">
         <v>2</v>
       </c>
       <c r="D9" s="6">
@@ -2085,11 +2085,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>6</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>1.25</v>
       </c>
       <c r="D10" s="6">
@@ -2107,9 +2107,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="24">
         <v>1.5</v>
       </c>
       <c r="D11" s="6">
@@ -2127,9 +2127,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="24">
         <v>1.75</v>
       </c>
       <c r="D12" s="6">
@@ -2147,9 +2147,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="24">
         <v>2</v>
       </c>
       <c r="D13" s="6">
@@ -2167,11 +2167,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>7</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>1.25</v>
       </c>
       <c r="D14" s="6">
@@ -2189,12 +2189,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="24">
         <v>1.5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="29">
         <v>43.644100000000002</v>
       </c>
       <c r="E15" s="13">
@@ -2209,9 +2209,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="24">
         <v>1.75</v>
       </c>
       <c r="D16" s="6">
@@ -2228,10 +2228,10 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="24">
         <v>2</v>
       </c>
       <c r="D17" s="6">
@@ -2248,14 +2248,14 @@
         <v>129.2098</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="55">
         <v>4</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>1.25</v>
       </c>
       <c r="D18" s="6">
@@ -2272,10 +2272,10 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="24">
         <v>1.5</v>
       </c>
       <c r="D19" s="6">
@@ -2292,10 +2292,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="24">
         <v>1.75</v>
       </c>
       <c r="D20" s="6">
@@ -2312,10 +2312,10 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="24">
         <v>2</v>
       </c>
       <c r="D21" s="6">
@@ -2332,12 +2332,12 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="56">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>5</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>1.25</v>
       </c>
       <c r="D22" s="6">
@@ -2354,10 +2354,10 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="24">
         <v>1.5</v>
       </c>
       <c r="D23" s="6">
@@ -2374,13 +2374,13 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="24">
         <v>1.75</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>43.872199999999999</v>
       </c>
       <c r="E24" s="14">
@@ -2393,11 +2393,14 @@
       <c r="G24" s="7">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="25">
+      <c r="H24" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="24">
         <v>2</v>
       </c>
       <c r="D25" s="6">
@@ -2414,12 +2417,12 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="56">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>6</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>1.25</v>
       </c>
       <c r="D26" s="6">
@@ -2436,10 +2439,10 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="24">
         <v>1.5</v>
       </c>
       <c r="D27" s="6">
@@ -2456,10 +2459,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="24">
         <v>1.75</v>
       </c>
       <c r="D28" s="6">
@@ -2476,10 +2479,10 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="24">
         <v>2</v>
       </c>
       <c r="D29" s="6">
@@ -2496,12 +2499,12 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="56">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>7</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>1.25</v>
       </c>
       <c r="D30" s="6">
@@ -2518,10 +2521,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="24">
         <v>1.5</v>
       </c>
       <c r="D31" s="6">
@@ -2538,10 +2541,10 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="24">
         <v>1.75</v>
       </c>
       <c r="D32" s="6">
@@ -2559,9 +2562,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="24">
         <v>2</v>
       </c>
       <c r="D33" s="6">
@@ -2598,21 +2601,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38C2AB-6679-452D-B8F6-77047F475134}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="27" customWidth="1"/>
-    <col min="5" max="7" width="26.77734375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="21.77734375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="26" customWidth="1"/>
+    <col min="5" max="7" width="26.77734375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2639,13 +2642,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0.2</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>1.25</v>
       </c>
       <c r="D2" s="4">
@@ -2663,9 +2666,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="24">
         <v>1.5</v>
       </c>
       <c r="D3" s="6">
@@ -2683,9 +2686,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="24">
         <v>1.75</v>
       </c>
       <c r="D4" s="6">
@@ -2703,9 +2706,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="24">
         <v>2</v>
       </c>
       <c r="D5" s="6">
@@ -2723,11 +2726,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>0.4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>1.25</v>
       </c>
       <c r="D6" s="6">
@@ -2745,9 +2748,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="24">
         <v>1.5</v>
       </c>
       <c r="D7" s="6">
@@ -2765,9 +2768,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="24">
         <v>1.75</v>
       </c>
       <c r="D8" s="6">
@@ -2785,9 +2788,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="24">
         <v>2</v>
       </c>
       <c r="D9" s="6">
@@ -2805,14 +2808,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>0.6</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>1.25</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="29">
         <v>43.317</v>
       </c>
       <c r="E10" s="13">
@@ -2827,9 +2830,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="24">
         <v>1.5</v>
       </c>
       <c r="D11" s="6">
@@ -2847,9 +2850,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="24">
         <v>1.75</v>
       </c>
       <c r="D12" s="6">
@@ -2867,9 +2870,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="24">
         <v>2</v>
       </c>
       <c r="D13" s="6">
@@ -2887,11 +2890,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55">
         <v>0.8</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>1.25</v>
       </c>
       <c r="D14" s="6">
@@ -2909,9 +2912,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="24">
         <v>1.5</v>
       </c>
       <c r="D15" s="6">
@@ -2929,9 +2932,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="24">
         <v>1.75</v>
       </c>
       <c r="D16" s="6">
@@ -2948,10 +2951,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="24">
         <v>2</v>
       </c>
       <c r="D17" s="6">
@@ -2968,14 +2971,14 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>0.2</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>1.25</v>
       </c>
       <c r="D18" s="6">
@@ -2992,10 +2995,10 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="24">
         <v>1.5</v>
       </c>
       <c r="D19" s="6">
@@ -3012,10 +3015,10 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="24">
         <v>1.75</v>
       </c>
       <c r="D20" s="6">
@@ -3032,10 +3035,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="24">
         <v>2</v>
       </c>
       <c r="D21" s="6">
@@ -3052,15 +3055,15 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="55">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="54">
         <v>0.4</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>1.25</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <v>43.685600000000001</v>
       </c>
       <c r="E22" s="14">
@@ -3073,11 +3076,14 @@
       <c r="G22" s="7">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="25">
+      <c r="H22" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="24">
         <v>1.5</v>
       </c>
       <c r="D23" s="6">
@@ -3094,10 +3100,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="24">
         <v>1.75</v>
       </c>
       <c r="D24" s="6">
@@ -3114,10 +3120,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="24">
         <v>2</v>
       </c>
       <c r="D25" s="6">
@@ -3134,12 +3140,12 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="55">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="54">
         <v>0.6</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>1.25</v>
       </c>
       <c r="D26" s="6">
@@ -3156,10 +3162,10 @@
         <v>335.95600000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="24">
         <v>1.5</v>
       </c>
       <c r="D27" s="6">
@@ -3176,10 +3182,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="24">
         <v>1.75</v>
       </c>
       <c r="D28" s="6">
@@ -3196,10 +3202,10 @@
         <v>206.76740000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="24">
         <v>2</v>
       </c>
       <c r="D29" s="6">
@@ -3216,12 +3222,12 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="55">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="54">
         <v>0.8</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>1.25</v>
       </c>
       <c r="D30" s="6">
@@ -3238,10 +3244,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="24">
         <v>1.5</v>
       </c>
       <c r="D31" s="6">
@@ -3258,10 +3264,10 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="24">
         <v>1.75</v>
       </c>
       <c r="D32" s="6">
@@ -3279,9 +3285,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="24">
         <v>2</v>
       </c>
       <c r="D33" s="6">
@@ -3321,19 +3327,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC75104-98F5-44A7-8EFA-4A397559D5FA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="27" customWidth="1"/>
-    <col min="5" max="7" width="26.77734375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="21.77734375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="26" customWidth="1"/>
+    <col min="5" max="7" width="26.77734375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3360,376 +3366,646 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
         <v>1.25</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="4">
+        <v>42.793900000000001</v>
+      </c>
+      <c r="E2" s="12">
+        <v>17362.0049</v>
+      </c>
+      <c r="F2" s="5">
+        <f>E2/3600</f>
+        <v>4.8227791388888885</v>
+      </c>
+      <c r="G2" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="24">
         <v>1.5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="6">
+        <v>42.884099999999997</v>
+      </c>
+      <c r="E3" s="13">
+        <v>19788.839800000002</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F33" si="0">E3/3600</f>
+        <v>5.4968999444444453</v>
+      </c>
+      <c r="G3" s="7">
+        <v>129.2098</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="24">
         <v>1.75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="24">
         <v>2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>1</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>1.25</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="24">
         <v>1.5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="6">
+        <v>42.796300000000002</v>
+      </c>
+      <c r="E7" s="13">
+        <v>13691.9393</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8033164722222224</v>
+      </c>
+      <c r="G7" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="24">
         <v>1.75</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="6">
+        <v>43.155500000000004</v>
+      </c>
+      <c r="E8" s="13">
+        <v>27673.470399999998</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6870751111111106</v>
+      </c>
+      <c r="G8" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="24">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="6">
+        <v>42.951700000000002</v>
+      </c>
+      <c r="E9" s="13">
+        <v>20460.037</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6833436111111109</v>
+      </c>
+      <c r="G9" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>1.25</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="6">
+        <v>43.009300000000003</v>
+      </c>
+      <c r="E10" s="13">
+        <v>16526.168699999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5906024166666661</v>
+      </c>
+      <c r="G10" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="24">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="6">
+        <v>43.218000000000004</v>
+      </c>
+      <c r="E11" s="13">
+        <v>28872.926599999999</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0202573888888882</v>
+      </c>
+      <c r="G11" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="24">
         <v>1.75</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="6">
+        <v>42.96</v>
+      </c>
+      <c r="E12" s="13">
+        <v>27558.525399999999</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6551459444444436</v>
+      </c>
+      <c r="G12" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="24">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="6">
+        <v>42.638199999999998</v>
+      </c>
+      <c r="E13" s="13">
+        <v>16996.010200000001</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7211139444444443</v>
+      </c>
+      <c r="G13" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>3</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>1.25</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="6">
+        <v>43.145699999999998</v>
+      </c>
+      <c r="E14" s="14">
+        <v>20103.983899999999</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5844399722222224</v>
+      </c>
+      <c r="G14" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="24">
         <v>1.5</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="6">
+        <v>42.872599999999998</v>
+      </c>
+      <c r="E15" s="13">
+        <v>20998.475699999999</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>5.832909916666666</v>
+      </c>
+      <c r="G15" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="24">
         <v>1.75</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="6">
+        <v>43.055300000000003</v>
+      </c>
+      <c r="E16" s="13">
+        <v>27710.040300000001</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6972334166666672</v>
+      </c>
+      <c r="G16" s="7">
+        <v>387.57100000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="6">
+        <v>43.148400000000002</v>
+      </c>
+      <c r="E17" s="14">
+        <v>27578.107599999999</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6605854444444441</v>
+      </c>
+      <c r="G17" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="56">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="55">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
         <v>1.25</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="6">
+        <v>43.065100000000001</v>
+      </c>
+      <c r="E18" s="14">
+        <v>17361.7588</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>4.822710777777778</v>
+      </c>
+      <c r="G18" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="24">
         <v>1.5</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="7"/>
+      <c r="D19" s="6">
+        <v>43.048099999999998</v>
+      </c>
+      <c r="E19" s="14">
+        <v>27704.671900000001</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6957421944444446</v>
+      </c>
+      <c r="G19" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="24">
         <v>1.75</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="6">
+        <v>43.219299999999997</v>
+      </c>
+      <c r="E20" s="14">
+        <v>27865.555499999999</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7404320833333333</v>
+      </c>
+      <c r="G20" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="6">
+        <v>42.901699999999998</v>
+      </c>
+      <c r="E21" s="14">
+        <v>17488.933799999999</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8580371666666666</v>
+      </c>
+      <c r="G21" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="56">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>1</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>1.25</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="7"/>
+      <c r="D22" s="6">
+        <v>43.128799999999998</v>
+      </c>
+      <c r="E22" s="14">
+        <v>17667.185399999998</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9075514999999994</v>
+      </c>
+      <c r="G22" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="24">
         <v>1.5</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="6">
+        <v>43.093299999999999</v>
+      </c>
+      <c r="E23" s="14">
+        <v>16640.653200000001</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>4.622403666666667</v>
+      </c>
+      <c r="G23" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="24">
         <v>1.75</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="6">
+        <v>43.1965</v>
+      </c>
+      <c r="E24" s="14">
+        <v>27667.050899999998</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6852919166666664</v>
+      </c>
+      <c r="G24" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="24">
         <v>2</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="6">
+        <v>43.314999999999998</v>
+      </c>
+      <c r="E25" s="14">
+        <v>27758.572199999999</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7107144999999999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="56">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>2</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>1.25</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="7"/>
+      <c r="D26" s="6">
+        <v>43.076700000000002</v>
+      </c>
+      <c r="E26" s="14">
+        <v>16422.856500000002</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5619045833333338</v>
+      </c>
+      <c r="G26" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="24">
         <v>1.5</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="6">
+        <v>43.620199999999997</v>
+      </c>
+      <c r="E27" s="14">
+        <v>27461.430700000001</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6281751944444443</v>
+      </c>
+      <c r="G27" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="24">
         <v>1.75</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="7"/>
+      <c r="D28" s="6">
+        <v>42.856400000000001</v>
+      </c>
+      <c r="E28" s="14">
+        <v>12754.1235</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5428120833333332</v>
+      </c>
+      <c r="G28" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="24">
         <v>2</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="7"/>
+      <c r="D29" s="6">
+        <v>43.242899999999999</v>
+      </c>
+      <c r="E29" s="14">
+        <v>33022.548900000002</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>9.1729302500000003</v>
+      </c>
+      <c r="G29" s="7">
+        <v>310.13979999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="56">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>3</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>1.25</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="7"/>
+      <c r="D30" s="6">
+        <v>43.408999999999999</v>
+      </c>
+      <c r="E30" s="14">
+        <v>29123.876199999999</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0899656111111113</v>
+      </c>
+      <c r="G30" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="24">
         <v>1.5</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="7"/>
+      <c r="D31" s="6">
+        <v>43.315600000000003</v>
+      </c>
+      <c r="E31" s="14">
+        <v>21459.285100000001</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>5.9609125277777784</v>
+      </c>
+      <c r="G31" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="24">
         <v>1.75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="7"/>
+      <c r="D32" s="6">
+        <v>42.891300000000001</v>
+      </c>
+      <c r="E32" s="14">
+        <v>17881.462899999999</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9670730277777775</v>
+      </c>
+      <c r="G32" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="24">
         <v>2</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="6">
+        <v>43.402500000000003</v>
+      </c>
+      <c r="E33" s="14">
+        <v>27633.9509</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6760974722222226</v>
+      </c>
+      <c r="G33" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3754,17 +4030,17 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="27" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" style="27" customWidth="1"/>
-    <col min="4" max="6" width="26.77734375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="26.44140625" style="26" customWidth="1"/>
+    <col min="2" max="3" width="26.6640625" style="26" customWidth="1"/>
+    <col min="4" max="6" width="26.77734375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3788,308 +4064,356 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>4</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>1.25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <f>D2/3600</f>
+        <v>0</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="24">
         <v>1.5</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E17" si="0">D3/3600</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="24">
         <v>1.75</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="24">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>1.25</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="24">
         <v>1.5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="24">
         <v>1.75</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="24">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>6</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>1.25</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="24">
         <v>1.5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="24">
         <v>1.75</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="24">
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>1.25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="24">
         <v>1.5</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="24">
         <v>1.75</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="24">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4108,17 +4432,17 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="27" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" style="27" customWidth="1"/>
-    <col min="4" max="6" width="26.77734375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="26.44140625" style="26" customWidth="1"/>
+    <col min="2" max="3" width="26.6640625" style="26" customWidth="1"/>
+    <col min="4" max="6" width="26.77734375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4142,324 +4466,372 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0.2</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>1.25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <f>D2/3600</f>
+        <v>0</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="24">
         <v>1.5</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E17" si="0">D3/3600</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="24">
         <v>1.75</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="24">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>0.4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>1.25</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="24">
         <v>1.5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="24">
         <v>1.75</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="24">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>0.6</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>1.25</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="24">
         <v>1.5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="24">
         <v>1.75</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="24">
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <v>0.8</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>1.25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="24">
         <v>1.5</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="24">
         <v>1.75</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="24">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -4479,17 +4851,17 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="27" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" style="27" customWidth="1"/>
-    <col min="4" max="6" width="26.77734375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="26.44140625" style="26" customWidth="1"/>
+    <col min="2" max="3" width="26.6640625" style="26" customWidth="1"/>
+    <col min="4" max="6" width="26.77734375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4513,332 +4885,380 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26">
+      <c r="A2" s="51">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
         <v>1.25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <f>D2/3600</f>
+        <v>0</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="24">
         <v>1.5</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E17" si="0">D3/3600</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="24">
         <v>1.75</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="24">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>1.25</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="24">
         <v>1.5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="24">
         <v>1.75</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="24">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>1.25</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="24">
         <v>1.5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="24">
         <v>1.75</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="24">
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>3</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>1.25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="24">
         <v>1.5</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="24">
         <v>1.75</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="24">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2634" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F6A047-246D-4A60-B272-06D36BFB10F3}"/>
+  <xr:revisionPtr revIDLastSave="2667" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0BE7FF-19AA-4940-B43F-60631739CA36}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -520,30 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,6 +550,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,6 +564,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,9 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="48">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34">
+      <c r="A6" s="46"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34">
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34">
+      <c r="A14" s="46"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36">
+      <c r="A18" s="46"/>
+      <c r="B18" s="49">
         <v>1</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34">
+      <c r="A22" s="46"/>
+      <c r="B22" s="40">
         <v>0.75</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34">
+      <c r="A26" s="46"/>
+      <c r="B26" s="40">
         <v>0.5</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34">
+      <c r="A30" s="46"/>
+      <c r="B30" s="40">
         <v>0.25</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="39">
         <v>0.1</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="39">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1852,13 +1852,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1869,6 +1862,13 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>4</v>
       </c>
       <c r="C2" s="25">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>5</v>
       </c>
       <c r="C6" s="25">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>6</v>
       </c>
       <c r="C10" s="25">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>7</v>
       </c>
       <c r="C14" s="25">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2209,8 +2209,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2229,8 +2229,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2249,10 +2249,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>4</v>
       </c>
       <c r="C18" s="25">
@@ -2273,8 +2273,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -2313,8 +2313,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -2333,8 +2333,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51">
         <v>5</v>
       </c>
       <c r="C22" s="25">
@@ -2355,8 +2355,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -2418,8 +2418,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51">
         <v>6</v>
       </c>
       <c r="C26" s="25">
@@ -2440,8 +2440,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -2460,8 +2460,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -2480,8 +2480,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -2500,8 +2500,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>7</v>
       </c>
       <c r="C30" s="25">
@@ -2522,8 +2522,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -2562,8 +2562,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -2583,16 +2583,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2642,10 +2642,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0.2</v>
       </c>
       <c r="C2" s="25">
@@ -2666,8 +2666,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -2686,8 +2686,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -2706,8 +2706,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2726,8 +2726,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>0.4</v>
       </c>
       <c r="C6" s="25">
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2788,8 +2788,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2808,8 +2808,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>0.6</v>
       </c>
       <c r="C10" s="25">
@@ -2830,8 +2830,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2850,8 +2850,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2890,8 +2890,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51">
         <v>0.8</v>
       </c>
       <c r="C14" s="25">
@@ -2912,8 +2912,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2932,8 +2932,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2952,8 +2952,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2972,10 +2972,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>0.2</v>
       </c>
       <c r="C18" s="25">
@@ -2996,8 +2996,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3016,8 +3016,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3036,8 +3036,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3056,8 +3056,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="54">
+      <c r="A22" s="50"/>
+      <c r="B22" s="55">
         <v>0.4</v>
       </c>
       <c r="C22" s="25">
@@ -3081,8 +3081,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3101,8 +3101,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3121,8 +3121,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3141,8 +3141,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="54">
+      <c r="A26" s="50"/>
+      <c r="B26" s="55">
         <v>0.6</v>
       </c>
       <c r="C26" s="25">
@@ -3163,8 +3163,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3183,8 +3183,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3203,8 +3203,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3223,8 +3223,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="54">
+      <c r="A30" s="50"/>
+      <c r="B30" s="55">
         <v>0.8</v>
       </c>
       <c r="C30" s="25">
@@ -3245,8 +3245,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3265,8 +3265,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3285,8 +3285,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -3307,16 +3307,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3327,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC75104-98F5-44A7-8EFA-4A397559D5FA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3366,10 +3366,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3390,8 +3390,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -3410,8 +3410,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -3424,8 +3424,8 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -3438,8 +3438,8 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="25">
@@ -3454,8 +3454,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -3474,8 +3474,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -3494,8 +3494,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -3514,8 +3514,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>2</v>
       </c>
       <c r="C10" s="25">
@@ -3536,8 +3536,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -3556,8 +3556,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -3576,8 +3576,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -3596,8 +3596,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>3</v>
       </c>
       <c r="C14" s="25">
@@ -3618,8 +3618,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -3638,8 +3638,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -3658,8 +3658,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -3678,10 +3678,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -3702,8 +3702,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3722,8 +3722,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3742,8 +3742,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3762,8 +3762,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51">
         <v>1</v>
       </c>
       <c r="C22" s="25">
@@ -3784,8 +3784,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3804,8 +3804,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3844,8 +3844,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -3866,8 +3866,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3886,8 +3886,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3906,8 +3906,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3926,8 +3926,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>3</v>
       </c>
       <c r="C30" s="25">
@@ -3948,8 +3948,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3968,8 +3968,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3988,8 +3988,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -4009,16 +4009,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4029,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90522F64-6716-4420-BD73-4405BBA33BC6}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4064,115 +4064,163 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>4</v>
       </c>
       <c r="B2" s="25">
         <v>1.25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="4">
+        <v>42.905799999999999</v>
+      </c>
+      <c r="D2" s="12">
+        <v>26138.2539</v>
+      </c>
       <c r="E2" s="5">
         <f>D2/3600</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>7.2606260833333334</v>
+      </c>
+      <c r="F2" s="5">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="6">
+        <v>42.916499999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>17367.591799999998</v>
+      </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E17" si="0">D3/3600</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>4.8243310555555547</v>
+      </c>
+      <c r="F3" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="6">
+        <v>43.137700000000002</v>
+      </c>
+      <c r="D4" s="13">
+        <v>21418.279299999998</v>
+      </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>5.9495220277777774</v>
+      </c>
+      <c r="F4" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="6">
+        <v>43.3065</v>
+      </c>
+      <c r="D5" s="13">
+        <v>27538.761200000001</v>
+      </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>7.6496558888888888</v>
+      </c>
+      <c r="F5" s="5">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
       <c r="B6" s="25">
         <v>1.25</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="6">
+        <v>42.793900000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>16372.566000000001</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>4.5479349999999998</v>
+      </c>
+      <c r="F6" s="7">
+        <v>206.76740000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="6">
+        <v>43.243200000000002</v>
+      </c>
+      <c r="D7" s="13">
+        <v>27641.671300000002</v>
+      </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>7.6782420277777783</v>
+      </c>
+      <c r="F7" s="5">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="6">
+        <v>43.277099999999997</v>
+      </c>
+      <c r="D8" s="13">
+        <v>27532.234899999999</v>
+      </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>7.6478430277777774</v>
+      </c>
+      <c r="F8" s="5">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="6">
+        <v>42.643099999999997</v>
+      </c>
+      <c r="D9" s="13">
+        <v>17365.373299999999</v>
+      </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>4.8237148055555554</v>
+      </c>
+      <c r="F9" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>6</v>
       </c>
       <c r="B10" s="25">
@@ -4187,20 +4235,26 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="6">
+        <v>42.703400000000002</v>
+      </c>
+      <c r="D11" s="13">
+        <v>13376.0388</v>
+      </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>3.7155663333333333</v>
+      </c>
+      <c r="F11" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4213,7 +4267,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4226,7 +4280,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
       <c r="B14" s="25">
@@ -4241,33 +4295,45 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="6">
+        <v>43.299399999999999</v>
+      </c>
+      <c r="D15" s="13">
+        <v>24647.067299999999</v>
+      </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>6.8464075833333329</v>
+      </c>
+      <c r="F15" s="7">
+        <v>310.13979999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="6">
+        <v>43.002000000000002</v>
+      </c>
+      <c r="D16" s="13">
+        <v>17406.909199999998</v>
+      </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>4.835252555555555</v>
+      </c>
+      <c r="F16" s="7">
+        <v>206.76740000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -4432,7 +4498,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4466,7 +4532,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>0.2</v>
       </c>
       <c r="B2" s="25">
@@ -4481,7 +4547,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4494,7 +4560,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4507,7 +4573,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4520,7 +4586,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>0.4</v>
       </c>
       <c r="B6" s="25">
@@ -4535,7 +4601,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4548,7 +4614,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4561,7 +4627,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4574,7 +4640,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>0.6</v>
       </c>
       <c r="B10" s="25">
@@ -4589,7 +4655,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4602,7 +4668,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4615,7 +4681,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4628,7 +4694,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="51">
         <v>0.8</v>
       </c>
       <c r="B14" s="25">
@@ -4643,7 +4709,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4656,7 +4722,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4669,7 +4735,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -4851,7 +4917,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4885,7 +4951,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>0</v>
       </c>
       <c r="B2" s="25">
@@ -4900,7 +4966,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4913,7 +4979,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4926,7 +4992,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4939,7 +5005,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
       <c r="B6" s="25">
@@ -4954,7 +5020,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4967,7 +5033,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4980,7 +5046,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4993,7 +5059,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
       <c r="B10" s="25">
@@ -5008,7 +5074,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -5021,7 +5087,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -5034,7 +5100,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -5047,7 +5113,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>3</v>
       </c>
       <c r="B14" s="25">
@@ -5062,7 +5128,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -5075,7 +5141,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -5088,7 +5154,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5273,11 +5339,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5510,27 +5577,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5555,9 +5612,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2667" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0BE7FF-19AA-4940-B43F-60631739CA36}"/>
+  <xr:revisionPtr revIDLastSave="2718" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1148D88-E6D4-4101-AD52-B64B5BD883D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -3325,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC75104-98F5-44A7-8EFA-4A397559D5FA}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3415,13 +3415,19 @@
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="6">
+        <v>42.914000000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <v>17416.2745</v>
+      </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>4.8378540277777775</v>
+      </c>
+      <c r="G4" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
@@ -3429,13 +3435,19 @@
       <c r="C5" s="24">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="6">
+        <v>43.1355</v>
+      </c>
+      <c r="E5" s="13">
+        <v>12892.380499999999</v>
+      </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>3.5812168055555555</v>
+      </c>
+      <c r="G5" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
@@ -3445,13 +3457,19 @@
       <c r="C6" s="25">
         <v>1.25</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="6">
+        <v>42.6419</v>
+      </c>
+      <c r="E6" s="13">
+        <v>12879.1618</v>
+      </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>3.5775449444444445</v>
+      </c>
+      <c r="G6" s="7">
+        <v>51.655099999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
@@ -3541,7 +3559,7 @@
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="29">
         <v>43.218000000000004</v>
       </c>
       <c r="E11" s="13">
@@ -3657,7 +3675,7 @@
         <v>387.57100000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="54"/>
       <c r="C17" s="24">
@@ -3677,7 +3695,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
@@ -3701,7 +3719,7 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="51"/>
       <c r="C19" s="24">
@@ -3721,7 +3739,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
       <c r="C20" s="24">
@@ -3741,7 +3759,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="24">
@@ -3761,7 +3779,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
       <c r="B22" s="51">
         <v>1</v>
@@ -3783,7 +3801,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="51"/>
       <c r="C23" s="24">
@@ -3803,7 +3821,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="51"/>
       <c r="C24" s="24">
@@ -3823,7 +3841,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
       <c r="C25" s="24">
@@ -3843,7 +3861,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
       <c r="B26" s="51">
         <v>2</v>
@@ -3865,13 +3883,13 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
       <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="29">
         <v>43.620199999999997</v>
       </c>
       <c r="E27" s="14">
@@ -3884,8 +3902,11 @@
       <c r="G27" s="7">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
       <c r="C28" s="24">
@@ -3905,7 +3926,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
       <c r="B29" s="51"/>
       <c r="C29" s="24">
@@ -3925,7 +3946,7 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
       <c r="B30" s="51">
         <v>3</v>
@@ -3947,7 +3968,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
       <c r="B31" s="51"/>
       <c r="C31" s="24">
@@ -3967,7 +3988,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="24">
@@ -4029,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90522F64-6716-4420-BD73-4405BBA33BC6}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4226,13 +4247,19 @@
       <c r="B10" s="25">
         <v>1.25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="6">
+        <v>43.195599999999999</v>
+      </c>
+      <c r="D10" s="13">
+        <v>26973.195400000001</v>
+      </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>7.4925542777777778</v>
+      </c>
+      <c r="F10" s="7">
+        <v>232.65119999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
@@ -4258,26 +4285,38 @@
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="6">
+        <v>42.970500000000001</v>
+      </c>
+      <c r="D12" s="13">
+        <v>17394.870999999999</v>
+      </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>4.8319086111111105</v>
+      </c>
+      <c r="F12" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="6">
+        <v>42.8718</v>
+      </c>
+      <c r="D13" s="13">
+        <v>20988.583200000001</v>
+      </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>5.8301620000000005</v>
+      </c>
+      <c r="F13" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="55">
@@ -4286,13 +4325,19 @@
       <c r="B14" s="25">
         <v>1.25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="6">
+        <v>43.295900000000003</v>
+      </c>
+      <c r="D14" s="14">
+        <v>28748.8894</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>7.9858026111111116</v>
+      </c>
+      <c r="F14" s="5">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
@@ -4497,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740E47-112E-4247-BBF2-6F3CD912340D}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4605,39 +4650,57 @@
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="6">
+        <v>43.381100000000004</v>
+      </c>
+      <c r="D7" s="13">
+        <v>28442.940999999999</v>
+      </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>7.9008169444444443</v>
+      </c>
+      <c r="F7" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="6">
+        <v>43.3551</v>
+      </c>
+      <c r="D8" s="13">
+        <v>29121.2474</v>
+      </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>8.0892353888888895</v>
+      </c>
+      <c r="F8" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="6">
+        <v>43.3705</v>
+      </c>
+      <c r="D9" s="13">
+        <v>28936.519799999998</v>
+      </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>8.0379221666666663</v>
+      </c>
+      <c r="F9" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="55">
@@ -4672,13 +4735,19 @@
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="6">
+        <v>42.790399999999998</v>
+      </c>
+      <c r="D12" s="13">
+        <v>16685.881000000001</v>
+      </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>4.6349669444444448</v>
+      </c>
+      <c r="F12" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
@@ -4700,39 +4769,57 @@
       <c r="B14" s="25">
         <v>1.25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="6">
+        <v>43.186300000000003</v>
+      </c>
+      <c r="D14" s="14">
+        <v>27331.0949</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>7.5919708055555555</v>
+      </c>
+      <c r="F14" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="6">
+        <v>42.6511</v>
+      </c>
+      <c r="D15" s="13">
+        <v>17543.399600000001</v>
+      </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>4.8731665555555557</v>
+      </c>
+      <c r="F15" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="6">
+        <v>43.733899999999998</v>
+      </c>
+      <c r="D16" s="13">
+        <v>29264.444899999999</v>
+      </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>8.1290124722222217</v>
+      </c>
+      <c r="F16" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>

--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2718" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1148D88-E6D4-4101-AD52-B64B5BD883D8}"/>
+  <xr:revisionPtr revIDLastSave="2764" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327F85A2-3512-4F51-926B-B7FC3DE93EF4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -520,6 +520,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,12 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,27 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="33">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="40">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34">
         <v>0.75</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="40">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34">
         <v>0.5</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="40">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34">
         <v>0.25</v>
       </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="47">
         <v>0.1</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1852,6 +1852,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1862,13 +1869,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>4</v>
       </c>
       <c r="C2" s="25">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>5</v>
       </c>
       <c r="C6" s="25">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>6</v>
       </c>
       <c r="C10" s="25">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>7</v>
       </c>
       <c r="C14" s="25">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2209,8 +2209,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2229,8 +2229,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2249,10 +2249,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>4</v>
       </c>
       <c r="C18" s="25">
@@ -2273,8 +2273,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -2313,8 +2313,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -2333,8 +2333,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>5</v>
       </c>
       <c r="C22" s="25">
@@ -2355,8 +2355,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -2418,8 +2418,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>6</v>
       </c>
       <c r="C26" s="25">
@@ -2440,8 +2440,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -2460,8 +2460,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -2480,8 +2480,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -2500,8 +2500,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>7</v>
       </c>
       <c r="C30" s="25">
@@ -2522,8 +2522,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -2562,8 +2562,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -2583,16 +2583,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2642,10 +2642,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0.2</v>
       </c>
       <c r="C2" s="25">
@@ -2666,8 +2666,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -2686,8 +2686,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -2706,8 +2706,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2726,8 +2726,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>0.4</v>
       </c>
       <c r="C6" s="25">
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2788,8 +2788,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2808,8 +2808,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>0.6</v>
       </c>
       <c r="C10" s="25">
@@ -2830,8 +2830,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2850,8 +2850,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2890,8 +2890,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55">
         <v>0.8</v>
       </c>
       <c r="C14" s="25">
@@ -2912,8 +2912,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2932,8 +2932,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2952,8 +2952,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2972,10 +2972,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>0.2</v>
       </c>
       <c r="C18" s="25">
@@ -2996,8 +2996,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3016,8 +3016,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3036,8 +3036,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3056,8 +3056,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="55">
+      <c r="A22" s="37"/>
+      <c r="B22" s="54">
         <v>0.4</v>
       </c>
       <c r="C22" s="25">
@@ -3081,8 +3081,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3101,8 +3101,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3121,8 +3121,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3141,8 +3141,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55">
+      <c r="A26" s="37"/>
+      <c r="B26" s="54">
         <v>0.6</v>
       </c>
       <c r="C26" s="25">
@@ -3163,8 +3163,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3183,8 +3183,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3203,8 +3203,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3223,8 +3223,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55">
+      <c r="A30" s="37"/>
+      <c r="B30" s="54">
         <v>0.8</v>
       </c>
       <c r="C30" s="25">
@@ -3245,8 +3245,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3265,8 +3265,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3285,8 +3285,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -3307,16 +3307,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3366,10 +3366,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3390,8 +3390,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -3410,8 +3410,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -3430,8 +3430,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -3450,8 +3450,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="25">
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -3492,8 +3492,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -3512,8 +3512,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -3532,8 +3532,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>2</v>
       </c>
       <c r="C10" s="25">
@@ -3554,8 +3554,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -3574,8 +3574,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -3594,8 +3594,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -3614,8 +3614,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>3</v>
       </c>
       <c r="C14" s="25">
@@ -3636,8 +3636,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -3656,8 +3656,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -3676,8 +3676,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -3696,10 +3696,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -3720,8 +3720,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3740,8 +3740,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3760,8 +3760,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3780,8 +3780,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>1</v>
       </c>
       <c r="C22" s="25">
@@ -3802,8 +3802,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3822,8 +3822,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3842,8 +3842,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3862,8 +3862,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -3884,8 +3884,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3907,8 +3907,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3927,8 +3927,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3947,8 +3947,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>3</v>
       </c>
       <c r="C30" s="25">
@@ -3969,8 +3969,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3989,8 +3989,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -4009,8 +4009,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -4030,16 +4030,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4048,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90522F64-6716-4420-BD73-4405BBA33BC6}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4064,7 +4064,7 @@
     <col min="9" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -4084,8 +4084,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="51">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -4105,8 +4105,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4124,8 +4124,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4143,12 +4143,12 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="29">
         <v>43.3065</v>
       </c>
       <c r="D5" s="13">
@@ -4161,9 +4161,12 @@
       <c r="F5" s="5">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="G5" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="25">
@@ -4183,8 +4186,8 @@
         <v>206.76740000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4202,8 +4205,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4221,8 +4224,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4240,8 +4243,8 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="54">
         <v>6</v>
       </c>
       <c r="B10" s="25">
@@ -4261,8 +4264,8 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4280,8 +4283,8 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4299,8 +4302,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4318,8 +4321,8 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
       <c r="B14" s="25">
@@ -4339,8 +4342,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4358,8 +4361,8 @@
         <v>310.13979999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4378,17 +4381,23 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="6">
+        <v>42.795299999999997</v>
+      </c>
+      <c r="D17" s="14">
+        <v>17577.4647</v>
+      </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>4.8826290833333337</v>
+      </c>
+      <c r="F17" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -4542,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740E47-112E-4247-BBF2-6F3CD912340D}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4577,7 +4586,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0.2</v>
       </c>
       <c r="B2" s="25">
@@ -4592,7 +4601,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4605,7 +4614,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4618,7 +4627,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4631,7 +4640,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>0.4</v>
       </c>
       <c r="B6" s="25">
@@ -4646,7 +4655,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4665,7 +4674,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4684,7 +4693,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4703,7 +4712,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>0.6</v>
       </c>
       <c r="B10" s="25">
@@ -4718,7 +4727,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4731,7 +4740,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4750,7 +4759,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4763,7 +4772,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>0.8</v>
       </c>
       <c r="B14" s="25">
@@ -4784,7 +4793,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4803,7 +4812,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4822,7 +4831,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5003,8 +5012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BB7E3A-06ED-4B19-A037-D7A7B9B01105}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5038,102 +5047,144 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
       <c r="B2" s="25">
         <v>1.25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="4">
+        <v>42.966900000000003</v>
+      </c>
+      <c r="D2" s="12">
+        <v>17168.3102</v>
+      </c>
       <c r="E2" s="5">
         <f>D2/3600</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>4.7689750555555559</v>
+      </c>
+      <c r="F2" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="6">
+        <v>42.865099999999998</v>
+      </c>
+      <c r="D3" s="13">
+        <v>17104.8089</v>
+      </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E17" si="0">D3/3600</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>4.7513358055555557</v>
+      </c>
+      <c r="F3" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="6">
+        <v>42.557899999999997</v>
+      </c>
+      <c r="D4" s="13">
+        <v>15354.303</v>
+      </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>4.265084166666667</v>
+      </c>
+      <c r="F4" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="6">
+        <v>42.599499999999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>13477.124400000001</v>
+      </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>3.7436456666666666</v>
+      </c>
+      <c r="F5" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
       <c r="B6" s="25">
         <v>1.25</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="6">
+        <v>43.383600000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>17653.445899999999</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>4.9037349722222219</v>
+      </c>
+      <c r="F6" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="6">
+        <v>42.832299999999996</v>
+      </c>
+      <c r="D7" s="13">
+        <v>17160.855100000001</v>
+      </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>4.7669041944444448</v>
+      </c>
+      <c r="F7" s="7">
+        <v>206.76740000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="6">
+        <v>42.779800000000002</v>
+      </c>
+      <c r="D8" s="13">
+        <v>26971.3959</v>
+      </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>7.4920544166666669</v>
+      </c>
+      <c r="F8" s="7">
+        <v>335.95600000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -5146,7 +5197,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
       <c r="B10" s="25">
@@ -5161,46 +5212,64 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="6">
+        <v>42.747900000000001</v>
+      </c>
+      <c r="D11" s="13">
+        <v>13202.8686</v>
+      </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>3.6674634999999998</v>
+      </c>
+      <c r="F11" s="7">
+        <v>51.655099999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="6">
+        <v>43.259599999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <v>27315.228800000001</v>
+      </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>7.5875635555555556</v>
+      </c>
+      <c r="F12" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="6">
+        <v>42.968800000000002</v>
+      </c>
+      <c r="D13" s="13">
+        <v>20981.0255</v>
+      </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>5.8280626388888885</v>
+      </c>
+      <c r="F13" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>3</v>
       </c>
       <c r="B14" s="25">
@@ -5215,43 +5284,61 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="6">
+        <v>43.53</v>
+      </c>
+      <c r="D15" s="13">
+        <v>28574.395499999999</v>
+      </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>7.9373320833333327</v>
+      </c>
+      <c r="F15" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="6">
+        <v>43.173499999999997</v>
+      </c>
+      <c r="D16" s="13">
+        <v>27742.7667</v>
+      </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>7.7063240833333335</v>
+      </c>
+      <c r="F16" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="6">
+        <v>42.634999999999998</v>
+      </c>
+      <c r="D17" s="14">
+        <v>16581.909100000001</v>
+      </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>4.6060858611111115</v>
+      </c>
+      <c r="F17" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -5426,12 +5513,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5664,17 +5750,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5699,18 +5795,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2764" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327F85A2-3512-4F51-926B-B7FC3DE93EF4}"/>
+  <xr:revisionPtr revIDLastSave="2799" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A499EBF5-DF70-41EC-A6C8-E5DFCC5A9AA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2206,6 +2206,9 @@
       </c>
       <c r="G15" s="7">
         <v>258.44920000000002</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2604,7 +2607,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2618,7 +2621,7 @@
     <col min="10" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="24">
@@ -2685,7 +2688,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="24">
@@ -2705,7 +2708,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="24">
@@ -2725,7 +2728,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="54">
         <v>0.4</v>
@@ -2747,7 +2750,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="52"/>
       <c r="C7" s="24">
@@ -2767,7 +2770,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="24">
@@ -2787,7 +2790,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="53"/>
       <c r="C9" s="24">
@@ -2807,7 +2810,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="54">
         <v>0.6</v>
@@ -2828,8 +2831,11 @@
       <c r="G10" s="7">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="24">
@@ -2849,7 +2855,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="24">
@@ -2869,7 +2875,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="53"/>
       <c r="C13" s="24">
@@ -2889,7 +2895,7 @@
         <v>206.76740000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="55">
         <v>0.8</v>
@@ -2911,7 +2917,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="55"/>
       <c r="C15" s="24">
@@ -2931,7 +2937,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="55"/>
       <c r="C16" s="24">
@@ -3328,7 +3334,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3342,7 +3348,7 @@
     <col min="10" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="24">
@@ -3409,7 +3415,7 @@
         <v>129.2098</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="24">
@@ -3429,7 +3435,7 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="24">
@@ -3449,7 +3455,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="54">
         <v>1</v>
@@ -3471,7 +3477,7 @@
         <v>51.655099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="52"/>
       <c r="C7" s="24">
@@ -3491,7 +3497,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="24">
@@ -3511,7 +3517,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="53"/>
       <c r="C9" s="24">
@@ -3531,7 +3537,7 @@
         <v>232.65119999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="54">
         <v>2</v>
@@ -3553,7 +3559,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="24">
@@ -3572,8 +3578,11 @@
       <c r="G11" s="7">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="24">
@@ -3593,7 +3602,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="53"/>
       <c r="C13" s="24">
@@ -3613,7 +3622,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="54">
         <v>3</v>
@@ -3635,7 +3644,7 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="24">
@@ -3655,7 +3664,7 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="24">
@@ -4552,7 +4561,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4592,52 +4601,76 @@
       <c r="B2" s="25">
         <v>1.25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="4">
+        <v>43.351300000000002</v>
+      </c>
+      <c r="D2" s="12">
+        <v>28698.839</v>
+      </c>
       <c r="E2" s="5">
         <f>D2/3600</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>7.9718997222222221</v>
+      </c>
+      <c r="F2" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="6">
+        <v>43.152999999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>22930.547200000001</v>
+      </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E17" si="0">D3/3600</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>6.3695964444444444</v>
+      </c>
+      <c r="F3" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="6">
+        <v>43.043700000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>17618.741399999999</v>
+      </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>4.894094833333333</v>
+      </c>
+      <c r="F4" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="6">
+        <v>42.890999999999998</v>
+      </c>
+      <c r="D5" s="13">
+        <v>16430.182199999999</v>
+      </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>4.5639395</v>
+      </c>
+      <c r="F5" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="54">
@@ -4646,13 +4679,19 @@
       <c r="B6" s="25">
         <v>1.25</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="6">
+        <v>43.021299999999997</v>
+      </c>
+      <c r="D6" s="13">
+        <v>13641.8586</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>3.7894051666666666</v>
+      </c>
+      <c r="F6" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
@@ -4718,26 +4757,38 @@
       <c r="B10" s="25">
         <v>1.25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="6">
+        <v>43.244900000000001</v>
+      </c>
+      <c r="D10" s="13">
+        <v>17283.948400000001</v>
+      </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>4.8010967777777784</v>
+      </c>
+      <c r="F10" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="6">
+        <v>43.005299999999998</v>
+      </c>
+      <c r="D11" s="13">
+        <v>16432.360100000002</v>
+      </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>4.5645444722222228</v>
+      </c>
+      <c r="F11" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
@@ -4763,13 +4814,19 @@
       <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="6">
+        <v>43.196599999999997</v>
+      </c>
+      <c r="D13" s="13">
+        <v>28871.741600000001</v>
+      </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>8.019928222222223</v>
+      </c>
+      <c r="F13" s="7">
+        <v>258.44920000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="55">
@@ -5013,7 +5070,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5203,13 +5260,19 @@
       <c r="B10" s="25">
         <v>1.25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="6">
+        <v>42.866300000000003</v>
+      </c>
+      <c r="D10" s="13">
+        <v>17490.058499999999</v>
+      </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>4.8583495833333332</v>
+      </c>
+      <c r="F10" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
@@ -5275,13 +5338,19 @@
       <c r="B14" s="25">
         <v>1.25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="6">
+        <v>42.865099999999998</v>
+      </c>
+      <c r="D14" s="14">
+        <v>15471.5005</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>4.2976390277777776</v>
+      </c>
+      <c r="F14" s="7">
+        <v>103.4242</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
@@ -5513,14 +5582,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FED9EBA27497914FBC51691506A72748" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8db1a03e1afeb6e2a80b24d758973afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xmlns:ns4="1a03cb65-d35a-4d70-82d7-cdf046b799c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd4cfb9390361c575275bc1f8c982e1d" ns3:_="" ns4:_="">
     <xsd:import namespace="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
@@ -5749,7 +5810,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5758,24 +5819,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A1E62E-0774-44F1-9C84-E26E87EB904E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5794,10 +5846,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2799" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A499EBF5-DF70-41EC-A6C8-E5DFCC5A9AA4}"/>
+  <xr:revisionPtr revIDLastSave="2813" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB181B8-B29E-458B-AF79-AB7200A6F576}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -520,30 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,6 +550,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,6 +564,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,9 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="48">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34">
+      <c r="A6" s="46"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34">
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34">
+      <c r="A14" s="46"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36">
+      <c r="A18" s="46"/>
+      <c r="B18" s="49">
         <v>1</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34">
+      <c r="A22" s="46"/>
+      <c r="B22" s="40">
         <v>0.75</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34">
+      <c r="A26" s="46"/>
+      <c r="B26" s="40">
         <v>0.5</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34">
+      <c r="A30" s="46"/>
+      <c r="B30" s="40">
         <v>0.25</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="39">
         <v>0.1</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="39">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1852,13 +1852,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1869,6 +1862,13 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>4</v>
       </c>
       <c r="C2" s="25">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>5</v>
       </c>
       <c r="C6" s="25">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>6</v>
       </c>
       <c r="C10" s="25">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>7</v>
       </c>
       <c r="C14" s="25">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2212,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2252,10 +2252,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>4</v>
       </c>
       <c r="C18" s="25">
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -2296,8 +2296,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -2316,8 +2316,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -2336,8 +2336,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51">
         <v>5</v>
       </c>
       <c r="C22" s="25">
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -2378,8 +2378,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51">
         <v>6</v>
       </c>
       <c r="C26" s="25">
@@ -2443,8 +2443,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -2463,8 +2463,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -2483,8 +2483,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -2503,8 +2503,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>7</v>
       </c>
       <c r="C30" s="25">
@@ -2525,8 +2525,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -2586,16 +2586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0.2</v>
       </c>
       <c r="C2" s="25">
@@ -2669,8 +2669,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -2689,8 +2689,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2729,8 +2729,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>0.4</v>
       </c>
       <c r="C6" s="25">
@@ -2751,8 +2751,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2791,8 +2791,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2811,8 +2811,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>0.6</v>
       </c>
       <c r="C10" s="25">
@@ -2836,8 +2836,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2856,8 +2856,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2896,8 +2896,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51">
         <v>0.8</v>
       </c>
       <c r="C14" s="25">
@@ -2918,8 +2918,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2938,8 +2938,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2958,8 +2958,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2978,10 +2978,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>0.2</v>
       </c>
       <c r="C18" s="25">
@@ -3002,8 +3002,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3042,8 +3042,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="54">
+      <c r="A22" s="50"/>
+      <c r="B22" s="55">
         <v>0.4</v>
       </c>
       <c r="C22" s="25">
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3107,8 +3107,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3127,8 +3127,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3147,8 +3147,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="54">
+      <c r="A26" s="50"/>
+      <c r="B26" s="55">
         <v>0.6</v>
       </c>
       <c r="C26" s="25">
@@ -3169,8 +3169,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3189,8 +3189,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3209,8 +3209,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="54">
+      <c r="A30" s="50"/>
+      <c r="B30" s="55">
         <v>0.8</v>
       </c>
       <c r="C30" s="25">
@@ -3251,8 +3251,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3271,8 +3271,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3291,8 +3291,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -3313,16 +3313,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3372,10 +3372,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3396,8 +3396,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -3436,8 +3436,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -3456,8 +3456,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="25">
@@ -3478,8 +3478,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -3498,8 +3498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -3538,8 +3538,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>2</v>
       </c>
       <c r="C10" s="25">
@@ -3560,8 +3560,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -3583,8 +3583,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -3623,8 +3623,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>3</v>
       </c>
       <c r="C14" s="25">
@@ -3645,8 +3645,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -3685,8 +3685,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -3705,10 +3705,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -3729,8 +3729,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3769,8 +3769,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3789,8 +3789,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51">
         <v>1</v>
       </c>
       <c r="C22" s="25">
@@ -3811,8 +3811,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3831,8 +3831,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3871,8 +3871,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -3893,8 +3893,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3916,8 +3916,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3936,8 +3936,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3956,8 +3956,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>3</v>
       </c>
       <c r="C30" s="25">
@@ -3978,8 +3978,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3998,8 +3998,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -4039,16 +4039,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
       <c r="B6" s="25">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>6</v>
       </c>
       <c r="B10" s="25">
@@ -4274,7 +4274,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
       <c r="B14" s="25">
@@ -4352,7 +4352,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -4558,10 +4558,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740E47-112E-4247-BBF2-6F3CD912340D}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4574,7 +4574,7 @@
     <col min="9" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -4594,8 +4594,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="52">
         <v>0.2</v>
       </c>
       <c r="B2" s="25">
@@ -4615,8 +4615,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4634,8 +4634,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4653,8 +4653,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4672,8 +4672,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="55">
         <v>0.4</v>
       </c>
       <c r="B6" s="25">
@@ -4693,8 +4693,8 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4712,8 +4712,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4731,8 +4731,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4750,8 +4750,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="55">
         <v>0.6</v>
       </c>
       <c r="B10" s="25">
@@ -4771,8 +4771,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4790,8 +4790,8 @@
         <v>155.0676</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4809,8 +4809,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4828,8 +4828,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="51">
         <v>0.8</v>
       </c>
       <c r="B14" s="25">
@@ -4849,8 +4849,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4868,12 +4868,12 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="29">
         <v>43.733899999999998</v>
       </c>
       <c r="D16" s="13">
@@ -4886,19 +4886,28 @@
       <c r="F16" s="7">
         <v>258.44920000000002</v>
       </c>
+      <c r="G16" s="26" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="6">
+        <v>42.975299999999997</v>
+      </c>
+      <c r="D17" s="14">
+        <v>17421.085599999999</v>
+      </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>4.8391904444444442</v>
+      </c>
+      <c r="F17" s="7">
+        <v>155.0676</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -5067,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BB7E3A-06ED-4B19-A037-D7A7B9B01105}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5083,7 +5092,7 @@
     <col min="9" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -5103,8 +5112,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="52">
         <v>0</v>
       </c>
       <c r="B2" s="25">
@@ -5124,8 +5133,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -5143,8 +5152,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -5162,8 +5171,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -5181,8 +5190,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
       <c r="B6" s="25">
@@ -5202,8 +5211,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -5221,8 +5230,8 @@
         <v>206.76740000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -5240,21 +5249,27 @@
         <v>335.95600000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="6">
+        <v>42.736199999999997</v>
+      </c>
+      <c r="D9" s="13">
+        <v>21205.789799999999</v>
+      </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+        <v>5.8904971666666661</v>
+      </c>
+      <c r="F9" s="7">
+        <v>206.76740000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
       <c r="B10" s="25">
@@ -5274,8 +5289,8 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -5293,8 +5308,8 @@
         <v>51.655099999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -5312,8 +5327,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -5331,8 +5346,8 @@
         <v>258.44920000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="55">
         <v>3</v>
       </c>
       <c r="B14" s="25">
@@ -5352,12 +5367,12 @@
         <v>103.4242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="29">
         <v>43.53</v>
       </c>
       <c r="D15" s="13">
@@ -5370,9 +5385,12 @@
       <c r="F15" s="7">
         <v>258.44920000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="G15" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -5391,7 +5409,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5582,6 +5600,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FED9EBA27497914FBC51691506A72748" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8db1a03e1afeb6e2a80b24d758973afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xmlns:ns4="1a03cb65-d35a-4d70-82d7-cdf046b799c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd4cfb9390361c575275bc1f8c982e1d" ns3:_="" ns4:_="">
     <xsd:import namespace="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
@@ -5810,24 +5845,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A1E62E-0774-44F1-9C84-E26E87EB904E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5844,29 +5887,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2813" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB181B8-B29E-458B-AF79-AB7200A6F576}"/>
+  <xr:revisionPtr revIDLastSave="2814" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790AA5CA-577D-45B7-8D90-652062035ED4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="opus_big Validation" sheetId="7" r:id="rId1"/>
+    <sheet name="opus_big Pure WCE + Baselines" sheetId="7" r:id="rId1"/>
     <sheet name="opus_big Simple aWCE" sheetId="11" r:id="rId2"/>
     <sheet name="opus_big AoN aWCE" sheetId="15" r:id="rId3"/>
     <sheet name="opus_big Fine aWCE" sheetId="14" r:id="rId4"/>
@@ -520,6 +520,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,12 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,27 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,8 +885,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="33">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="40">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34">
         <v>0.75</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="40">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34">
         <v>0.5</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="40">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34">
         <v>0.25</v>
       </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="47">
         <v>0.1</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1852,6 +1852,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1862,13 +1869,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>4</v>
       </c>
       <c r="C2" s="25">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>5</v>
       </c>
       <c r="C6" s="25">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>6</v>
       </c>
       <c r="C10" s="25">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>7</v>
       </c>
       <c r="C14" s="25">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2212,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2252,10 +2252,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>4</v>
       </c>
       <c r="C18" s="25">
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -2296,8 +2296,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -2316,8 +2316,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -2336,8 +2336,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>5</v>
       </c>
       <c r="C22" s="25">
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -2378,8 +2378,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>6</v>
       </c>
       <c r="C26" s="25">
@@ -2443,8 +2443,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -2463,8 +2463,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -2483,8 +2483,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -2503,8 +2503,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>7</v>
       </c>
       <c r="C30" s="25">
@@ -2525,8 +2525,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -2586,16 +2586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0.2</v>
       </c>
       <c r="C2" s="25">
@@ -2669,8 +2669,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -2689,8 +2689,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2729,8 +2729,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>0.4</v>
       </c>
       <c r="C6" s="25">
@@ -2751,8 +2751,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2791,8 +2791,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2811,8 +2811,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>0.6</v>
       </c>
       <c r="C10" s="25">
@@ -2836,8 +2836,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2856,8 +2856,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2896,8 +2896,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55">
         <v>0.8</v>
       </c>
       <c r="C14" s="25">
@@ -2918,8 +2918,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2938,8 +2938,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2958,8 +2958,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2978,10 +2978,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>0.2</v>
       </c>
       <c r="C18" s="25">
@@ -3002,8 +3002,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3042,8 +3042,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="55">
+      <c r="A22" s="37"/>
+      <c r="B22" s="54">
         <v>0.4</v>
       </c>
       <c r="C22" s="25">
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3107,8 +3107,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3127,8 +3127,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3147,8 +3147,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55">
+      <c r="A26" s="37"/>
+      <c r="B26" s="54">
         <v>0.6</v>
       </c>
       <c r="C26" s="25">
@@ -3169,8 +3169,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3189,8 +3189,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3209,8 +3209,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55">
+      <c r="A30" s="37"/>
+      <c r="B30" s="54">
         <v>0.8</v>
       </c>
       <c r="C30" s="25">
@@ -3251,8 +3251,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3271,8 +3271,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3291,8 +3291,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -3313,16 +3313,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3372,10 +3372,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3396,8 +3396,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -3436,8 +3436,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -3456,8 +3456,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="25">
@@ -3478,8 +3478,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -3498,8 +3498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -3538,8 +3538,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>2</v>
       </c>
       <c r="C10" s="25">
@@ -3560,8 +3560,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -3583,8 +3583,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -3623,8 +3623,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>3</v>
       </c>
       <c r="C14" s="25">
@@ -3645,8 +3645,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -3685,8 +3685,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -3705,10 +3705,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -3729,8 +3729,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3769,8 +3769,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3789,8 +3789,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>1</v>
       </c>
       <c r="C22" s="25">
@@ -3811,8 +3811,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3831,8 +3831,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3871,8 +3871,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -3893,8 +3893,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3916,8 +3916,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3936,8 +3936,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3956,8 +3956,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>3</v>
       </c>
       <c r="C30" s="25">
@@ -3978,8 +3978,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3998,8 +3998,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -4039,16 +4039,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="25">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>6</v>
       </c>
       <c r="B10" s="25">
@@ -4274,7 +4274,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
       <c r="B14" s="25">
@@ -4352,7 +4352,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0.2</v>
       </c>
       <c r="B2" s="25">
@@ -4616,7 +4616,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>0.4</v>
       </c>
       <c r="B6" s="25">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>0.6</v>
       </c>
       <c r="B10" s="25">
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4829,7 +4829,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>0.8</v>
       </c>
       <c r="B14" s="25">
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5078,7 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BB7E3A-06ED-4B19-A037-D7A7B9B01105}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5113,7 +5113,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
       <c r="B2" s="25">
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
       <c r="B6" s="25">
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -5269,7 +5269,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
       <c r="B10" s="25">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>3</v>
       </c>
       <c r="B14" s="25">
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5600,23 +5600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FED9EBA27497914FBC51691506A72748" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8db1a03e1afeb6e2a80b24d758973afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xmlns:ns4="1a03cb65-d35a-4d70-82d7-cdf046b799c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd4cfb9390361c575275bc1f8c982e1d" ns3:_="" ns4:_="">
     <xsd:import namespace="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
@@ -5845,32 +5828,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A1E62E-0774-44F1-9C84-E26E87EB904E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5887,4 +5862,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2814" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790AA5CA-577D-45B7-8D90-652062035ED4}"/>
+  <xr:revisionPtr revIDLastSave="2821" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E757E6-418F-42F3-8663-B11138E8D6D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opus_big Pure WCE + Baselines" sheetId="7" r:id="rId1"/>
-    <sheet name="opus_big Simple aWCE" sheetId="11" r:id="rId2"/>
-    <sheet name="opus_big AoN aWCE" sheetId="15" r:id="rId3"/>
-    <sheet name="opus_big Fine aWCE" sheetId="14" r:id="rId4"/>
-    <sheet name="opus_big LSP Simple aWCE" sheetId="16" r:id="rId5"/>
-    <sheet name="opus_big LSP AoN aWCE " sheetId="18" r:id="rId6"/>
-    <sheet name="opus_big LSP Fine aWCE " sheetId="17" r:id="rId7"/>
+    <sheet name="opus_big Simple FWCE" sheetId="11" r:id="rId2"/>
+    <sheet name="opus_big AoN FWCE" sheetId="15" r:id="rId3"/>
+    <sheet name="opus_big Fine FWCE" sheetId="14" r:id="rId4"/>
+    <sheet name="opus_big LSP Simple FWCE" sheetId="16" r:id="rId5"/>
+    <sheet name="opus_big LSP AoN FWCE " sheetId="18" r:id="rId6"/>
+    <sheet name="opus_big LSP Fine FWCE " sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -520,30 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,6 +550,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,6 +564,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,9 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,7 +885,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="48">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34">
+      <c r="A6" s="46"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34">
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34">
+      <c r="A14" s="46"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36">
+      <c r="A18" s="46"/>
+      <c r="B18" s="49">
         <v>1</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34">
+      <c r="A22" s="46"/>
+      <c r="B22" s="40">
         <v>0.75</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34">
+      <c r="A26" s="46"/>
+      <c r="B26" s="40">
         <v>0.5</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34">
+      <c r="A30" s="46"/>
+      <c r="B30" s="40">
         <v>0.25</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="39">
         <v>0.1</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="39">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1852,13 +1852,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1869,6 +1862,13 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>4</v>
       </c>
       <c r="C2" s="25">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>5</v>
       </c>
       <c r="C6" s="25">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>6</v>
       </c>
       <c r="C10" s="25">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>7</v>
       </c>
       <c r="C14" s="25">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2212,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2252,10 +2252,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>4</v>
       </c>
       <c r="C18" s="25">
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -2296,8 +2296,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -2316,8 +2316,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -2336,8 +2336,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51">
         <v>5</v>
       </c>
       <c r="C22" s="25">
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -2378,8 +2378,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51">
         <v>6</v>
       </c>
       <c r="C26" s="25">
@@ -2443,8 +2443,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -2463,8 +2463,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -2483,8 +2483,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -2503,8 +2503,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>7</v>
       </c>
       <c r="C30" s="25">
@@ -2525,8 +2525,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -2586,16 +2586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0.2</v>
       </c>
       <c r="C2" s="25">
@@ -2669,8 +2669,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -2689,8 +2689,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2729,8 +2729,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>0.4</v>
       </c>
       <c r="C6" s="25">
@@ -2751,8 +2751,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2791,8 +2791,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2811,8 +2811,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>0.6</v>
       </c>
       <c r="C10" s="25">
@@ -2836,8 +2836,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2856,8 +2856,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2896,8 +2896,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51">
         <v>0.8</v>
       </c>
       <c r="C14" s="25">
@@ -2918,8 +2918,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2938,8 +2938,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2958,8 +2958,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2978,10 +2978,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>0.2</v>
       </c>
       <c r="C18" s="25">
@@ -3002,8 +3002,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3042,8 +3042,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="54">
+      <c r="A22" s="50"/>
+      <c r="B22" s="55">
         <v>0.4</v>
       </c>
       <c r="C22" s="25">
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3107,8 +3107,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3127,8 +3127,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3147,8 +3147,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="54">
+      <c r="A26" s="50"/>
+      <c r="B26" s="55">
         <v>0.6</v>
       </c>
       <c r="C26" s="25">
@@ -3169,8 +3169,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3189,8 +3189,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3209,8 +3209,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="54">
+      <c r="A30" s="50"/>
+      <c r="B30" s="55">
         <v>0.8</v>
       </c>
       <c r="C30" s="25">
@@ -3251,8 +3251,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3271,8 +3271,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3291,8 +3291,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -3313,16 +3313,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3372,10 +3372,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3396,8 +3396,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -3436,8 +3436,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -3456,8 +3456,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="25">
@@ -3478,8 +3478,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -3498,8 +3498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -3538,8 +3538,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55">
         <v>2</v>
       </c>
       <c r="C10" s="25">
@@ -3560,8 +3560,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -3583,8 +3583,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -3623,8 +3623,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55">
         <v>3</v>
       </c>
       <c r="C14" s="25">
@@ -3645,8 +3645,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -3685,8 +3685,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -3705,10 +3705,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -3729,8 +3729,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3769,8 +3769,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3789,8 +3789,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51">
         <v>1</v>
       </c>
       <c r="C22" s="25">
@@ -3811,8 +3811,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3831,8 +3831,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3871,8 +3871,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="55">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -3893,8 +3893,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3916,8 +3916,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3936,8 +3936,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3956,8 +3956,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>3</v>
       </c>
       <c r="C30" s="25">
@@ -3978,8 +3978,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3998,8 +3998,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -4039,16 +4039,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
       <c r="B6" s="25">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>6</v>
       </c>
       <c r="B10" s="25">
@@ -4274,7 +4274,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
       <c r="B14" s="25">
@@ -4352,7 +4352,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>0.2</v>
       </c>
       <c r="B2" s="25">
@@ -4616,7 +4616,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>0.4</v>
       </c>
       <c r="B6" s="25">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>0.6</v>
       </c>
       <c r="B10" s="25">
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4829,7 +4829,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="51">
         <v>0.8</v>
       </c>
       <c r="B14" s="25">
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5078,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BB7E3A-06ED-4B19-A037-D7A7B9B01105}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5113,7 +5113,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>0</v>
       </c>
       <c r="B2" s="25">
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
       <c r="B6" s="25">
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -5269,7 +5269,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
       <c r="B10" s="25">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>3</v>
       </c>
       <c r="B14" s="25">
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5600,6 +5600,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FED9EBA27497914FBC51691506A72748" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8db1a03e1afeb6e2a80b24d758973afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xmlns:ns4="1a03cb65-d35a-4d70-82d7-cdf046b799c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd4cfb9390361c575275bc1f8c982e1d" ns3:_="" ns4:_="">
     <xsd:import namespace="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
@@ -5828,24 +5845,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
+    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A1E62E-0774-44F1-9C84-E26E87EB904E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5862,29 +5887,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
-    <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
+++ b/model_evaluations/Opus-Big Hyperparameter Search Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ers19_ic_ac_uk/Documents/MSc Computing/Individual Project/Code/medical-mt/model_evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2821" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E757E6-418F-42F3-8663-B11138E8D6D5}"/>
+  <xr:revisionPtr revIDLastSave="2832" documentId="8_{026E2CEC-91DE-48F7-861E-52387E5F0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F4FDE2E-F5A4-4B38-8B55-CAF1693A1C8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="opus_big Simple FWCE" sheetId="11" r:id="rId2"/>
     <sheet name="opus_big AoN FWCE" sheetId="15" r:id="rId3"/>
     <sheet name="opus_big Fine FWCE" sheetId="14" r:id="rId4"/>
-    <sheet name="opus_big LSP Simple FWCE" sheetId="16" r:id="rId5"/>
-    <sheet name="opus_big LSP AoN FWCE " sheetId="18" r:id="rId6"/>
-    <sheet name="opus_big LSP Fine FWCE " sheetId="17" r:id="rId7"/>
+    <sheet name="opus_big Simple LSP WCE" sheetId="16" r:id="rId5"/>
+    <sheet name="opus_big AoN LSP WCE " sheetId="18" r:id="rId6"/>
+    <sheet name="opus_big Fine LSP WCE " sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -520,6 +520,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,12 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,27 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,13 +927,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="33">
         <v>0.25</v>
       </c>
       <c r="D2" s="4">
@@ -955,9 +955,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="6">
         <v>1.5</v>
       </c>
@@ -977,9 +977,9 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6">
         <v>1.75</v>
       </c>
@@ -999,9 +999,9 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
@@ -1021,9 +1021,9 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
         <v>0.5</v>
       </c>
       <c r="D6" s="6">
@@ -1045,9 +1045,9 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6">
         <v>1.5</v>
       </c>
@@ -1067,9 +1067,9 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="6">
         <v>1.75</v>
       </c>
@@ -1089,9 +1089,9 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1111,9 +1111,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
         <v>0.75</v>
       </c>
       <c r="D10" s="6">
@@ -1135,9 +1135,9 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="6">
         <v>1.5</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6">
         <v>1.75</v>
       </c>
@@ -1179,9 +1179,9 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34">
         <v>1</v>
       </c>
       <c r="D14" s="6">
@@ -1225,9 +1225,9 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6">
         <v>1.75</v>
       </c>
@@ -1269,9 +1269,9 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6">
         <v>1.25</v>
       </c>
@@ -1315,9 +1315,9 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6">
         <v>1.5</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6">
         <v>1.75</v>
       </c>
@@ -1359,9 +1359,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="40">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34">
         <v>0.75</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6">
         <v>1.25</v>
       </c>
@@ -1405,9 +1405,9 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6">
         <v>1.5</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6">
         <v>1.75</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6">
         <v>2</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="40">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34">
         <v>0.5</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6">
         <v>1.25</v>
       </c>
@@ -1494,9 +1494,9 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6">
         <v>1.5</v>
       </c>
@@ -1516,9 +1516,9 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6">
         <v>1.75</v>
       </c>
@@ -1538,9 +1538,9 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
@@ -1560,11 +1560,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="40">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34">
         <v>0.25</v>
       </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6">
         <v>1.25</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6">
         <v>1.5</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="6">
         <v>1.75</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8">
         <v>2</v>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="47">
         <v>0.1</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
       <c r="D34" s="4">
@@ -1678,9 +1678,9 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6">
         <v>1.5</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6">
         <v>1.75</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="8">
         <v>2</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="8">
         <v>43.123899999999999</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -1799,11 +1799,11 @@
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="22">
         <v>43.224200000000003</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="5">
         <v>42.909700000000001</v>
       </c>
@@ -1852,6 +1852,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C5"/>
@@ -1862,13 +1869,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>4</v>
       </c>
       <c r="C2" s="25">
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>5</v>
       </c>
       <c r="C6" s="25">
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>6</v>
       </c>
       <c r="C10" s="25">
@@ -2107,8 +2107,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>7</v>
       </c>
       <c r="C14" s="25">
@@ -2189,8 +2189,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2212,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2252,10 +2252,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>4</v>
       </c>
       <c r="C18" s="25">
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -2296,8 +2296,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -2316,8 +2316,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -2336,8 +2336,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>5</v>
       </c>
       <c r="C22" s="25">
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -2378,8 +2378,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>6</v>
       </c>
       <c r="C26" s="25">
@@ -2443,8 +2443,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -2463,8 +2463,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -2483,8 +2483,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -2503,8 +2503,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>7</v>
       </c>
       <c r="C30" s="25">
@@ -2525,8 +2525,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -2586,16 +2586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0.2</v>
       </c>
       <c r="C2" s="25">
@@ -2669,8 +2669,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -2689,8 +2689,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -2729,8 +2729,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>0.4</v>
       </c>
       <c r="C6" s="25">
@@ -2751,8 +2751,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -2791,8 +2791,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -2811,8 +2811,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>0.6</v>
       </c>
       <c r="C10" s="25">
@@ -2836,8 +2836,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -2856,8 +2856,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -2896,8 +2896,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55">
         <v>0.8</v>
       </c>
       <c r="C14" s="25">
@@ -2918,8 +2918,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -2938,8 +2938,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -2958,8 +2958,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -2978,10 +2978,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>0.2</v>
       </c>
       <c r="C18" s="25">
@@ -3002,8 +3002,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3042,8 +3042,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="55">
+      <c r="A22" s="37"/>
+      <c r="B22" s="54">
         <v>0.4</v>
       </c>
       <c r="C22" s="25">
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3107,8 +3107,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3127,8 +3127,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3147,8 +3147,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55">
+      <c r="A26" s="37"/>
+      <c r="B26" s="54">
         <v>0.6</v>
       </c>
       <c r="C26" s="25">
@@ -3169,8 +3169,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3189,8 +3189,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3209,8 +3209,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55">
+      <c r="A30" s="37"/>
+      <c r="B30" s="54">
         <v>0.8</v>
       </c>
       <c r="C30" s="25">
@@ -3251,8 +3251,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3271,8 +3271,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -3291,8 +3291,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -3313,16 +3313,16 @@
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3372,10 +3372,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3396,8 +3396,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24">
         <v>1.5</v>
       </c>
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24">
         <v>1.75</v>
       </c>
@@ -3436,8 +3436,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="24">
         <v>2</v>
       </c>
@@ -3456,8 +3456,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="25">
@@ -3478,8 +3478,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="24">
         <v>1.5</v>
       </c>
@@ -3498,8 +3498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="24">
         <v>1.75</v>
       </c>
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="24">
         <v>2</v>
       </c>
@@ -3538,8 +3538,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54">
         <v>2</v>
       </c>
       <c r="C10" s="25">
@@ -3560,8 +3560,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
@@ -3583,8 +3583,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24">
         <v>1.75</v>
       </c>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24">
         <v>2</v>
       </c>
@@ -3623,8 +3623,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55">
+      <c r="A14" s="52"/>
+      <c r="B14" s="54">
         <v>3</v>
       </c>
       <c r="C14" s="25">
@@ -3645,8 +3645,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24">
         <v>1.5</v>
       </c>
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="24">
         <v>1.75</v>
       </c>
@@ -3685,8 +3685,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24">
         <v>2</v>
       </c>
@@ -3705,10 +3705,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>0</v>
       </c>
       <c r="C18" s="25">
@@ -3729,8 +3729,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="24">
         <v>1.5</v>
       </c>
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24">
         <v>1.75</v>
       </c>
@@ -3769,8 +3769,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="24">
         <v>2</v>
       </c>
@@ -3789,8 +3789,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51">
+      <c r="A22" s="37"/>
+      <c r="B22" s="55">
         <v>1</v>
       </c>
       <c r="C22" s="25">
@@ -3811,8 +3811,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="24">
         <v>1.5</v>
       </c>
@@ -3831,8 +3831,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="24">
         <v>1.75</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24">
         <v>2</v>
       </c>
@@ -3871,8 +3871,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51">
+      <c r="A26" s="37"/>
+      <c r="B26" s="55">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -3893,8 +3893,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="24">
         <v>1.5</v>
       </c>
@@ -3916,8 +3916,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="24">
         <v>1.75</v>
       </c>
@@ -3936,8 +3936,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24">
         <v>2</v>
       </c>
@@ -3956,8 +3956,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>3</v>
       </c>
       <c r="C30" s="25">
@@ -3978,8 +3978,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="24">
         <v>1.5</v>
       </c>
@@ -3998,8 +3998,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="24">
         <v>1.75</v>
       </c>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24">
         <v>2</v>
       </c>
@@ -4039,16 +4039,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>4</v>
       </c>
       <c r="B2" s="25">
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="25">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>6</v>
       </c>
       <c r="B10" s="25">
@@ -4274,7 +4274,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
       <c r="B14" s="25">
@@ -4352,7 +4352,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0.2</v>
       </c>
       <c r="B2" s="25">
@@ -4616,7 +4616,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>0.4</v>
       </c>
       <c r="B6" s="25">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>0.6</v>
       </c>
       <c r="B10" s="25">
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -4829,7 +4829,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>0.8</v>
       </c>
       <c r="B14" s="25">
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5079,7 +5079,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5113,7 +5113,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
       <c r="B2" s="25">
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24">
         <v>1.5</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24">
         <v>1.75</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
       <c r="B6" s="25">
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24">
         <v>1.5</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="24">
         <v>1.75</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="24">
         <v>2</v>
       </c>
@@ -5269,7 +5269,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
       <c r="B10" s="25">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24">
         <v>1.5</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24">
         <v>1.75</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24">
         <v>2</v>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>3</v>
       </c>
       <c r="B14" s="25">
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="24">
         <v>1.5</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="24">
         <v>1.75</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="24">
         <v>2</v>
       </c>
@@ -5600,20 +5600,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5846,6 +5846,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9D27D8-044D-44EB-88DB-642AFEB3F345}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5858,14 +5866,6 @@
     <ds:schemaRef ds:uri="1a03cb65-d35a-4d70-82d7-cdf046b799c1"/>
     <ds:schemaRef ds:uri="66f5e48b-5e03-411e-a0b5-f2048ddf7ea4"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E308881-5124-4B0A-82DE-B3088F1EAF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
